--- a/Experiment 3/Corpus/Corpus2.xlsx
+++ b/Experiment 3/Corpus/Corpus2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\preview_costs\Experiment 3\Corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509B87ED-FFFB-4D9B-A813-712D17B1AE95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E04B5CA-E81D-4EE0-B4AB-E684AF691F2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="900">
   <si>
     <t>Word</t>
   </si>
@@ -5809,6 +5809,69 @@
   </si>
   <si>
     <t>laomh</t>
+  </si>
+  <si>
+    <t>aouzk</t>
+  </si>
+  <si>
+    <t>okufu</t>
+  </si>
+  <si>
+    <t>ekoob</t>
+  </si>
+  <si>
+    <t>ujark</t>
+  </si>
+  <si>
+    <t>yatau</t>
+  </si>
+  <si>
+    <t>yauza</t>
+  </si>
+  <si>
+    <t>eguzv</t>
+  </si>
+  <si>
+    <t>cenub</t>
+  </si>
+  <si>
+    <t>abudk</t>
+  </si>
+  <si>
+    <t>udavu</t>
+  </si>
+  <si>
+    <t>dohtu</t>
+  </si>
+  <si>
+    <t>eouwh</t>
+  </si>
+  <si>
+    <t>jdeku</t>
+  </si>
+  <si>
+    <t>hufoa</t>
+  </si>
+  <si>
+    <t>hiomb</t>
+  </si>
+  <si>
+    <t>kdtueb</t>
+  </si>
+  <si>
+    <t>saodoa</t>
+  </si>
+  <si>
+    <t>atoxob</t>
+  </si>
+  <si>
+    <t>akfusd</t>
+  </si>
+  <si>
+    <t>aierwb</t>
+  </si>
+  <si>
+    <t>quamsu</t>
   </si>
 </sst>
 </file>
@@ -6292,8 +6355,8 @@
   <dimension ref="A1:R144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E118" sqref="E118"/>
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H139" sqref="H139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13553,7 +13616,9 @@
       <c r="D119" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="E119" s="1"/>
+      <c r="E119" s="1" t="s">
+        <v>879</v>
+      </c>
       <c r="F119" s="1">
         <f t="shared" si="19"/>
         <v>5</v>
@@ -13609,7 +13674,9 @@
       <c r="D120" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="E120" s="1"/>
+      <c r="E120" s="1" t="s">
+        <v>880</v>
+      </c>
       <c r="F120" s="1">
         <f t="shared" si="19"/>
         <v>5</v>
@@ -13665,7 +13732,9 @@
       <c r="D121" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="E121" s="1"/>
+      <c r="E121" s="1" t="s">
+        <v>881</v>
+      </c>
       <c r="F121" s="1">
         <f t="shared" si="19"/>
         <v>5</v>
@@ -13721,7 +13790,9 @@
       <c r="D122" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="E122" s="1"/>
+      <c r="E122" s="1" t="s">
+        <v>882</v>
+      </c>
       <c r="F122" s="1">
         <f t="shared" si="19"/>
         <v>5</v>
@@ -13777,7 +13848,9 @@
       <c r="D123" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="E123" s="1"/>
+      <c r="E123" s="1" t="s">
+        <v>883</v>
+      </c>
       <c r="F123" s="1">
         <f t="shared" si="19"/>
         <v>5</v>
@@ -13833,7 +13906,9 @@
       <c r="D124" s="15" t="s">
         <v>572</v>
       </c>
-      <c r="E124" s="15"/>
+      <c r="E124" s="15" t="s">
+        <v>884</v>
+      </c>
       <c r="F124" s="15">
         <f t="shared" si="19"/>
         <v>5</v>
@@ -13889,7 +13964,9 @@
       <c r="D125" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="E125" s="1"/>
+      <c r="E125" s="1" t="s">
+        <v>885</v>
+      </c>
       <c r="F125" s="1">
         <f t="shared" si="19"/>
         <v>5</v>
@@ -13951,7 +14028,9 @@
       <c r="D126" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="E126" s="1"/>
+      <c r="E126" s="1" t="s">
+        <v>886</v>
+      </c>
       <c r="F126" s="1">
         <f t="shared" si="19"/>
         <v>5</v>
@@ -14007,7 +14086,9 @@
       <c r="D127" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="E127" s="1"/>
+      <c r="E127" s="1" t="s">
+        <v>887</v>
+      </c>
       <c r="F127" s="1">
         <f t="shared" si="19"/>
         <v>5</v>
@@ -14063,7 +14144,9 @@
       <c r="D128" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="E128" s="1"/>
+      <c r="E128" s="1" t="s">
+        <v>888</v>
+      </c>
       <c r="F128" s="1">
         <f t="shared" si="19"/>
         <v>5</v>
@@ -14125,7 +14208,9 @@
       <c r="D129" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="E129" s="1"/>
+      <c r="E129" s="1" t="s">
+        <v>889</v>
+      </c>
       <c r="F129" s="1">
         <f t="shared" ref="F129:F139" si="26">LEN(C129)</f>
         <v>5</v>
@@ -14187,7 +14272,9 @@
       <c r="D130" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="E130" s="1"/>
+      <c r="E130" s="1" t="s">
+        <v>890</v>
+      </c>
       <c r="F130" s="1">
         <f t="shared" si="26"/>
         <v>5</v>
@@ -14249,7 +14336,9 @@
       <c r="D131" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="E131" s="1"/>
+      <c r="E131" s="1" t="s">
+        <v>891</v>
+      </c>
       <c r="F131" s="1">
         <f t="shared" si="26"/>
         <v>5</v>
@@ -14305,7 +14394,9 @@
       <c r="D132" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="E132" s="1"/>
+      <c r="E132" s="1" t="s">
+        <v>892</v>
+      </c>
       <c r="F132" s="1">
         <f t="shared" si="26"/>
         <v>5</v>
@@ -14361,7 +14452,9 @@
       <c r="D133" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="E133" s="1"/>
+      <c r="E133" s="1" t="s">
+        <v>893</v>
+      </c>
       <c r="F133" s="1">
         <f t="shared" si="26"/>
         <v>5</v>
@@ -14423,7 +14516,9 @@
       <c r="D134" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="E134" s="1"/>
+      <c r="E134" s="1" t="s">
+        <v>894</v>
+      </c>
       <c r="F134" s="1">
         <f t="shared" si="26"/>
         <v>6</v>
@@ -14479,7 +14574,9 @@
       <c r="D135" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="E135" s="1"/>
+      <c r="E135" s="1" t="s">
+        <v>895</v>
+      </c>
       <c r="F135" s="1">
         <f t="shared" si="26"/>
         <v>6</v>
@@ -14541,7 +14638,9 @@
       <c r="D136" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="E136" s="1"/>
+      <c r="E136" s="1" t="s">
+        <v>896</v>
+      </c>
       <c r="F136" s="1">
         <f t="shared" si="26"/>
         <v>6</v>
@@ -14597,7 +14696,9 @@
       <c r="D137" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="E137" s="1"/>
+      <c r="E137" s="1" t="s">
+        <v>897</v>
+      </c>
       <c r="F137" s="1">
         <f t="shared" si="26"/>
         <v>6</v>
@@ -14653,7 +14754,9 @@
       <c r="D138" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="E138" s="1"/>
+      <c r="E138" s="1" t="s">
+        <v>898</v>
+      </c>
       <c r="F138" s="1">
         <f t="shared" si="26"/>
         <v>6</v>
@@ -14709,7 +14812,9 @@
       <c r="D139" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="E139" s="1"/>
+      <c r="E139" s="1" t="s">
+        <v>899</v>
+      </c>
       <c r="F139" s="1">
         <f t="shared" si="26"/>
         <v>6</v>

--- a/Experiment 3/Corpus/Corpus2.xlsx
+++ b/Experiment 3/Corpus/Corpus2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\preview_costs\Experiment 3\Corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B690B25-8B1A-4F42-B07F-CCAF4F6D0D49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E8CDA3-83D4-457E-8289-A2A974F319E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="911">
   <si>
     <t>Word</t>
   </si>
@@ -5861,13 +5861,40 @@
       </rPr>
       <t xml:space="preserve"> vegetation that had not been trimmed in years.</t>
     </r>
+  </si>
+  <si>
+    <t>She is the author of a series of successful high school biology textbooks.</t>
+  </si>
+  <si>
+    <t>In the end, the show had to be cancelled due to its sinking ratings.</t>
+  </si>
+  <si>
+    <t>Last week, Anna spent hours on the phone with her friend.</t>
+  </si>
+  <si>
+    <t>Recovering from the recession proved to be very challenging for the small country.</t>
+  </si>
+  <si>
+    <t>The dangerous political situation forced many activists to emigrate.</t>
+  </si>
+  <si>
+    <t>The castle attracted many visitors from abroad, even when it was still in ruins.</t>
+  </si>
+  <si>
+    <t>Does she write poetry books?</t>
+  </si>
+  <si>
+    <t>Was the show cancelled?</t>
+  </si>
+  <si>
+    <t>Was it easy to recover from the recession?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5912,6 +5939,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -5941,7 +5974,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5998,13 +6031,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6355,11 +6399,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T144"/>
+  <dimension ref="A1:T148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I140" sqref="I140"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R143" sqref="R143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6482,7 +6526,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="5" t="str">
-        <f t="shared" ref="L2:L33" si="5">IF(J2&gt;87, "WILL NOT FIT ON SCREEN!", "Yes")</f>
+        <f t="shared" ref="L2:L4" si="5">IF(J2&gt;87, "WILL NOT FIT ON SCREEN!", "Yes")</f>
         <v>Yes</v>
       </c>
       <c r="M2" s="1" t="s">
@@ -16042,78 +16086,186 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="K141" s="3">
-        <f>AVERAGE(K2:K139)</f>
-        <v>14.166666666666666</v>
-      </c>
-      <c r="N141" s="1">
-        <f>AVERAGE(N2:N140)</f>
-        <v>5.6304347826086953</v>
-      </c>
-      <c r="O141" s="1">
-        <f>AVERAGE(O2:O139)</f>
-        <v>4.77536231884058</v>
-      </c>
-      <c r="Q141" s="3">
-        <f>AVERAGE(Q2:Q139)</f>
-        <v>0.5</v>
-      </c>
-      <c r="R141" s="3">
-        <f>SUM(R2:R139)</f>
-        <v>54</v>
-      </c>
-      <c r="S141" s="3">
-        <f>AVERAGE(S2:S139)</f>
-        <v>6.4927536231884062</v>
-      </c>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="K142" s="3">
-        <f>MIN(K2:K139)</f>
-        <v>9</v>
-      </c>
-      <c r="N142" s="1">
-        <f>MIN(N2:N139)</f>
-        <v>4</v>
-      </c>
-      <c r="O142" s="1">
-        <f>MIN(O2:O139)</f>
-        <v>4</v>
-      </c>
-      <c r="S142" s="3">
-        <f>MIN(S2:S139)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="F143" s="1">
+    <row r="140" spans="1:20" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>687</v>
+      </c>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="20" t="s">
+        <v>902</v>
+      </c>
+      <c r="J140" s="12"/>
+      <c r="K140" s="12"/>
+      <c r="L140" s="5"/>
+      <c r="M140" s="11"/>
+      <c r="N140" s="11"/>
+      <c r="O140" s="1"/>
+      <c r="P140" s="13" t="s">
+        <v>908</v>
+      </c>
+      <c r="Q140" s="12">
+        <v>0</v>
+      </c>
+      <c r="R140" s="12">
+        <v>1</v>
+      </c>
+      <c r="S140" s="3"/>
+      <c r="T140" s="1"/>
+    </row>
+    <row r="141" spans="1:20" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>687</v>
+      </c>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="20" t="s">
+        <v>903</v>
+      </c>
+      <c r="J141" s="12"/>
+      <c r="K141" s="12"/>
+      <c r="L141" s="5"/>
+      <c r="M141" s="11"/>
+      <c r="N141" s="11"/>
+      <c r="O141" s="1"/>
+      <c r="P141" s="13" t="s">
+        <v>909</v>
+      </c>
+      <c r="Q141" s="12">
+        <v>1</v>
+      </c>
+      <c r="R141" s="12">
+        <v>1</v>
+      </c>
+      <c r="S141" s="3"/>
+      <c r="T141" s="1"/>
+    </row>
+    <row r="142" spans="1:20" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>687</v>
+      </c>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="20" t="s">
+        <v>904</v>
+      </c>
+      <c r="J142" s="12"/>
+      <c r="K142" s="12"/>
+      <c r="L142" s="5"/>
+      <c r="M142" s="11"/>
+      <c r="N142" s="11"/>
+      <c r="O142" s="1"/>
+      <c r="P142" s="13"/>
+      <c r="Q142" s="12"/>
+      <c r="R142" s="12"/>
+      <c r="S142" s="3"/>
+      <c r="T142" s="1"/>
+    </row>
+    <row r="143" spans="1:20" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>687</v>
+      </c>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="20" t="s">
+        <v>905</v>
+      </c>
+      <c r="J143" s="12"/>
+      <c r="K143" s="12"/>
+      <c r="L143" s="5"/>
+      <c r="M143" s="11"/>
+      <c r="N143" s="11"/>
+      <c r="O143" s="1"/>
+      <c r="P143" s="13" t="s">
+        <v>910</v>
+      </c>
+      <c r="Q143" s="12">
+        <v>0</v>
+      </c>
+      <c r="R143" s="12">
+        <v>1</v>
+      </c>
+      <c r="S143" s="3"/>
+      <c r="T143" s="1"/>
+    </row>
+    <row r="144" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>687</v>
+      </c>
+      <c r="I144" s="20" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>687</v>
+      </c>
+      <c r="I145" s="20" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F147" s="1">
         <f>AVERAGE(F2:F139)</f>
         <v>4.77536231884058</v>
       </c>
-      <c r="G143" s="1">
+      <c r="G147" s="1">
         <f>AVERAGE(G2:G139)</f>
         <v>4.77536231884058</v>
       </c>
-      <c r="K143" s="3">
+      <c r="K147" s="3">
         <f>MAX(K2:K139)</f>
         <v>18</v>
       </c>
-      <c r="N143" s="1">
+      <c r="N147" s="1">
         <f>MAX(N2:N139)</f>
         <v>8</v>
       </c>
-      <c r="O143" s="1">
+      <c r="O147" s="1">
         <f>MAX(O2:O139)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="N144" s="1">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N148" s="1">
         <f>STDEV(N2:N139)</f>
         <v>1.2734004533899557</v>
       </c>
-      <c r="O144" s="1">
+      <c r="O148" s="1">
         <f>STDEV(O2:O139)</f>
         <v>0.61630066534331529</v>
       </c>
@@ -16123,20 +16275,23 @@
     <sortCondition descending="1" ref="R2:R139"/>
     <sortCondition ref="A2:A139"/>
   </sortState>
-  <conditionalFormatting sqref="M2:M139">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+  <conditionalFormatting sqref="M2:M143">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N28:N139">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="N28:N143">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="I140:I145">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <printOptions gridLines="1"/>

--- a/Experiment 3/Corpus/Corpus2.xlsx
+++ b/Experiment 3/Corpus/Corpus2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\preview_costs\Experiment 3\Corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E8CDA3-83D4-457E-8289-A2A974F319E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8426BA-9B6D-4A26-89B8-BDA45C2F1384}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="918">
   <si>
     <t>Word</t>
   </si>
@@ -5888,6 +5888,27 @@
   </si>
   <si>
     <t>Was it easy to recover from the recession?</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>successful</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>from</t>
   </si>
 </sst>
 </file>
@@ -6401,9 +6422,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R143" sqref="R143"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11914,11 +11935,11 @@
         <v>Yes</v>
       </c>
       <c r="M78" s="14" t="s">
-        <v>158</v>
+        <v>911</v>
       </c>
       <c r="N78" s="14">
         <f t="shared" si="25"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O78" s="1">
         <f t="shared" si="26"/>
@@ -11931,11 +11952,11 @@
       </c>
       <c r="S78" s="3">
         <f t="shared" si="27"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T78" s="1">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
@@ -15453,11 +15474,11 @@
         <v>669</v>
       </c>
       <c r="N130" s="11">
-        <f t="shared" ref="N130:N139" si="44">LEN(M130)</f>
+        <f t="shared" ref="N130:N145" si="44">LEN(M130)</f>
         <v>5</v>
       </c>
       <c r="O130" s="14">
-        <f t="shared" ref="O130:O139" si="45">LEN(C130)</f>
+        <f t="shared" ref="O130:O145" si="45">LEN(C130)</f>
         <v>5</v>
       </c>
       <c r="P130" s="13"/>
@@ -15466,11 +15487,11 @@
         <v>0</v>
       </c>
       <c r="S130" s="3">
-        <f t="shared" ref="S130:S139" si="46">IF(ISBLANK(LEFT(I130,FIND(M130,I130)-1)),0,LEN(TRIM(LEFT(I130,FIND(M130,I130)-1)))-LEN(SUBSTITUTE(LEFT(I130,FIND(M130,I130)-1)," ",""))+1)+1</f>
+        <f t="shared" ref="S130:S145" si="46">IF(ISBLANK(LEFT(I130,FIND(M130,I130)-1)),0,LEN(TRIM(LEFT(I130,FIND(M130,I130)-1)))-LEN(SUBSTITUTE(LEFT(I130,FIND(M130,I130)-1)," ",""))+1)+1</f>
         <v>4</v>
       </c>
       <c r="T130" s="1">
-        <f t="shared" ref="T130:T139" si="47">S130+1</f>
+        <f t="shared" ref="T130:T146" si="47">S130+1</f>
         <v>5</v>
       </c>
     </row>
@@ -16105,9 +16126,17 @@
       <c r="J140" s="12"/>
       <c r="K140" s="12"/>
       <c r="L140" s="5"/>
-      <c r="M140" s="11"/>
-      <c r="N140" s="11"/>
-      <c r="O140" s="1"/>
+      <c r="M140" s="11" t="s">
+        <v>912</v>
+      </c>
+      <c r="N140" s="11">
+        <f t="shared" si="44"/>
+        <v>10</v>
+      </c>
+      <c r="O140" s="1">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
       <c r="P140" s="13" t="s">
         <v>908</v>
       </c>
@@ -16117,8 +16146,14 @@
       <c r="R140" s="12">
         <v>1</v>
       </c>
-      <c r="S140" s="3"/>
-      <c r="T140" s="1"/>
+      <c r="S140" s="3">
+        <f t="shared" si="46"/>
+        <v>9</v>
+      </c>
+      <c r="T140" s="1">
+        <f t="shared" si="47"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="141" spans="1:20" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141">
@@ -16139,9 +16174,17 @@
       <c r="J141" s="12"/>
       <c r="K141" s="12"/>
       <c r="L141" s="5"/>
-      <c r="M141" s="11"/>
-      <c r="N141" s="11"/>
-      <c r="O141" s="1"/>
+      <c r="M141" s="11" t="s">
+        <v>913</v>
+      </c>
+      <c r="N141" s="11">
+        <f t="shared" si="44"/>
+        <v>2</v>
+      </c>
+      <c r="O141" s="1">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
       <c r="P141" s="13" t="s">
         <v>909</v>
       </c>
@@ -16151,8 +16194,14 @@
       <c r="R141" s="12">
         <v>1</v>
       </c>
-      <c r="S141" s="3"/>
-      <c r="T141" s="1"/>
+      <c r="S141" s="3">
+        <f t="shared" si="46"/>
+        <v>8</v>
+      </c>
+      <c r="T141" s="1">
+        <f t="shared" si="47"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="142" spans="1:20" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142">
@@ -16173,14 +16222,30 @@
       <c r="J142" s="12"/>
       <c r="K142" s="12"/>
       <c r="L142" s="5"/>
-      <c r="M142" s="11"/>
-      <c r="N142" s="11"/>
-      <c r="O142" s="1"/>
+      <c r="M142" s="11" t="s">
+        <v>914</v>
+      </c>
+      <c r="N142" s="11">
+        <f t="shared" si="44"/>
+        <v>3</v>
+      </c>
+      <c r="O142" s="1">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
       <c r="P142" s="13"/>
       <c r="Q142" s="12"/>
-      <c r="R142" s="12"/>
-      <c r="S142" s="3"/>
-      <c r="T142" s="1"/>
+      <c r="R142" s="12">
+        <v>0</v>
+      </c>
+      <c r="S142" s="3">
+        <f t="shared" si="46"/>
+        <v>7</v>
+      </c>
+      <c r="T142" s="1">
+        <f t="shared" si="47"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="143" spans="1:20" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143">
@@ -16201,9 +16266,17 @@
       <c r="J143" s="12"/>
       <c r="K143" s="12"/>
       <c r="L143" s="5"/>
-      <c r="M143" s="11"/>
-      <c r="N143" s="11"/>
-      <c r="O143" s="1"/>
+      <c r="M143" s="11" t="s">
+        <v>915</v>
+      </c>
+      <c r="N143" s="11">
+        <f t="shared" si="44"/>
+        <v>9</v>
+      </c>
+      <c r="O143" s="1">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
       <c r="P143" s="13" t="s">
         <v>910</v>
       </c>
@@ -16213,8 +16286,14 @@
       <c r="R143" s="12">
         <v>1</v>
       </c>
-      <c r="S143" s="3"/>
-      <c r="T143" s="1"/>
+      <c r="S143" s="3">
+        <f t="shared" si="46"/>
+        <v>4</v>
+      </c>
+      <c r="T143" s="1">
+        <f t="shared" si="47"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="144" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144">
@@ -16226,8 +16305,30 @@
       <c r="I144" s="20" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="145" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M144" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="N144" s="11">
+        <f t="shared" si="44"/>
+        <v>6</v>
+      </c>
+      <c r="O144" s="1">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R144" s="3">
+        <v>0</v>
+      </c>
+      <c r="S144" s="3">
+        <f t="shared" si="46"/>
+        <v>5</v>
+      </c>
+      <c r="T144" s="1">
+        <f t="shared" si="47"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -16237,8 +16338,33 @@
       <c r="I145" s="20" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M145" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="N145" s="11">
+        <f t="shared" si="44"/>
+        <v>4</v>
+      </c>
+      <c r="O145" s="1">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R145" s="3">
+        <v>0</v>
+      </c>
+      <c r="S145" s="3">
+        <f t="shared" si="46"/>
+        <v>6</v>
+      </c>
+      <c r="T145" s="1">
+        <f t="shared" si="47"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T146" s="1"/>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F147" s="1">
         <f>AVERAGE(F2:F139)</f>
         <v>4.77536231884058</v>
@@ -16260,10 +16386,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
       <c r="N148" s="1">
         <f>STDEV(N2:N139)</f>
-        <v>1.2734004533899557</v>
+        <v>1.2709682148307737</v>
       </c>
       <c r="O148" s="1">
         <f>STDEV(O2:O139)</f>
@@ -16280,7 +16406,7 @@
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N28:N143">
+  <conditionalFormatting sqref="N28:N145">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>8</formula>
     </cfRule>

--- a/Experiment 3/Corpus/Corpus2.xlsx
+++ b/Experiment 3/Corpus/Corpus2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\preview_costs\Experiment 3\Corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8426BA-9B6D-4A26-89B8-BDA45C2F1384}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF735D01-21AE-4FBF-B044-E0A808E9DA21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5786,6 +5786,106 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Dan challenged his older brother to finish the game without </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cheat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> codes of any kind.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The cottage was surrounded by dense </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vegetation that had not been trimmed in years.</t>
+    </r>
+  </si>
+  <si>
+    <t>She is the author of a series of successful high school biology textbooks.</t>
+  </si>
+  <si>
+    <t>In the end, the show had to be cancelled due to its sinking ratings.</t>
+  </si>
+  <si>
+    <t>Last week, Anna spent hours on the phone with her friend.</t>
+  </si>
+  <si>
+    <t>Recovering from the recession proved to be very challenging for the small country.</t>
+  </si>
+  <si>
+    <t>The dangerous political situation forced many activists to emigrate.</t>
+  </si>
+  <si>
+    <t>The castle attracted many visitors from abroad, even when it was still in ruins.</t>
+  </si>
+  <si>
+    <t>Does she write poetry books?</t>
+  </si>
+  <si>
+    <t>Was the show cancelled?</t>
+  </si>
+  <si>
+    <t>Was it easy to recover from the recession?</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>successful</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">The client was advised to contact </t>
     </r>
     <r>
@@ -5807,108 +5907,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> support if the software was not working properly.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dan challenged his older brother to finish the game without </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cheat</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> codes of any kind.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The cottage was surrounded by dense </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fern</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> vegetation that had not been trimmed in years.</t>
-    </r>
-  </si>
-  <si>
-    <t>She is the author of a series of successful high school biology textbooks.</t>
-  </si>
-  <si>
-    <t>In the end, the show had to be cancelled due to its sinking ratings.</t>
-  </si>
-  <si>
-    <t>Last week, Anna spent hours on the phone with her friend.</t>
-  </si>
-  <si>
-    <t>Recovering from the recession proved to be very challenging for the small country.</t>
-  </si>
-  <si>
-    <t>The dangerous political situation forced many activists to emigrate.</t>
-  </si>
-  <si>
-    <t>The castle attracted many visitors from abroad, even when it was still in ruins.</t>
-  </si>
-  <si>
-    <t>Does she write poetry books?</t>
-  </si>
-  <si>
-    <t>Was the show cancelled?</t>
-  </si>
-  <si>
-    <t>Was it easy to recover from the recession?</t>
-  </si>
-  <si>
-    <t>contact</t>
-  </si>
-  <si>
-    <t>successful</t>
-  </si>
-  <si>
-    <t>be</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>from</t>
+      <t xml:space="preserve"> support if the program was not working properly.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -6423,8 +6423,8 @@
   <dimension ref="A1:T148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A145" sqref="A145"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6547,18 +6547,18 @@
         <v>14</v>
       </c>
       <c r="L2" s="5" t="str">
-        <f t="shared" ref="L2:L4" si="5">IF(J2&gt;87, "WILL NOT FIT ON SCREEN!", "Yes")</f>
+        <f>IF(J2&gt;87, "WILL NOT FIT ON SCREEN!", "Yes")</f>
         <v>Yes</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>270</v>
       </c>
       <c r="N2" s="1">
-        <f t="shared" ref="N2:N33" si="6">LEN(M2)</f>
+        <f t="shared" ref="N2:N33" si="5">LEN(M2)</f>
         <v>4</v>
       </c>
       <c r="O2" s="1">
-        <f t="shared" ref="O2:O33" si="7">LEN(C2)</f>
+        <f t="shared" ref="O2:O33" si="6">LEN(C2)</f>
         <v>4</v>
       </c>
       <c r="P2" s="8" t="s">
@@ -6571,11 +6571,11 @@
         <v>1</v>
       </c>
       <c r="S2" s="3">
-        <f t="shared" ref="S2:S33" si="8">IF(ISBLANK(LEFT(I2,FIND(M2,I2)-1)),0,LEN(TRIM(LEFT(I2,FIND(M2,I2)-1)))-LEN(SUBSTITUTE(LEFT(I2,FIND(M2,I2)-1)," ",""))+1)+1</f>
+        <f t="shared" ref="S2:S33" si="7">IF(ISBLANK(LEFT(I2,FIND(M2,I2)-1)),0,LEN(TRIM(LEFT(I2,FIND(M2,I2)-1)))-LEN(SUBSTITUTE(LEFT(I2,FIND(M2,I2)-1)," ",""))+1)+1</f>
         <v>7</v>
       </c>
       <c r="T2" s="1">
-        <f t="shared" ref="T2:T33" si="9">S2+1</f>
+        <f t="shared" ref="T2:T33" si="8">S2+1</f>
         <v>8</v>
       </c>
     </row>
@@ -6619,18 +6619,18 @@
         <v>16</v>
       </c>
       <c r="L3" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="L3:L66" si="9">IF(J3&gt;87, "WILL NOT FIT ON SCREEN!", "Yes")</f>
         <v>Yes</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>231</v>
       </c>
       <c r="N3" s="1">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="O3" s="1">
         <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="O3" s="1">
-        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="P3" s="8" t="s">
@@ -6643,11 +6643,11 @@
         <v>1</v>
       </c>
       <c r="S3" s="3">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="T3" s="1">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="T3" s="1">
-        <f t="shared" si="9"/>
         <v>6</v>
       </c>
     </row>
@@ -6691,18 +6691,18 @@
         <v>15</v>
       </c>
       <c r="L4" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>271</v>
       </c>
       <c r="N4" s="1">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="O4" s="1">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="O4" s="1">
-        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="P4" s="8" t="s">
@@ -6715,11 +6715,11 @@
         <v>1</v>
       </c>
       <c r="S4" s="3">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="T4" s="1">
         <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="T4" s="1">
-        <f t="shared" si="9"/>
         <v>5</v>
       </c>
     </row>
@@ -6763,18 +6763,18 @@
         <v>16</v>
       </c>
       <c r="L5" s="5" t="str">
-        <f>IF(J5&gt;88, "WILL NOT FIT ON SCREEN!", "Yes")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>232</v>
       </c>
       <c r="N5" s="1">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="O5" s="1">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="O5" s="1">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="P5" s="8" t="s">
@@ -6787,11 +6787,11 @@
         <v>1</v>
       </c>
       <c r="S5" s="3">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="T5" s="1">
         <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="T5" s="1">
-        <f t="shared" si="9"/>
         <v>8</v>
       </c>
     </row>
@@ -6835,18 +6835,18 @@
         <v>16</v>
       </c>
       <c r="L6" s="5" t="str">
-        <f t="shared" ref="L6:L69" si="10">IF(J6&gt;88, "WILL NOT FIT ON SCREEN!", "Yes")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M6" s="14" t="s">
         <v>272</v>
       </c>
       <c r="N6" s="14">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="O6" s="1">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="O6" s="1">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="P6" s="16" t="s">
@@ -6859,11 +6859,11 @@
         <v>1</v>
       </c>
       <c r="S6" s="3">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="T6" s="1">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="T6" s="1">
-        <f t="shared" si="9"/>
         <v>9</v>
       </c>
     </row>
@@ -6907,18 +6907,18 @@
         <v>13</v>
       </c>
       <c r="L7" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>275</v>
       </c>
       <c r="N7" s="1">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="O7" s="1">
         <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="O7" s="1">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="P7" s="8" t="s">
@@ -6931,11 +6931,11 @@
         <v>1</v>
       </c>
       <c r="S7" s="3">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="T7" s="1">
         <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="T7" s="1">
-        <f t="shared" si="9"/>
         <v>8</v>
       </c>
     </row>
@@ -6979,18 +6979,18 @@
         <v>14</v>
       </c>
       <c r="L8" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>389</v>
       </c>
       <c r="N8" s="1">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="O8" s="1">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="O8" s="1">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="P8" s="8" t="s">
@@ -7003,11 +7003,11 @@
         <v>1</v>
       </c>
       <c r="S8" s="3">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="T8" s="1">
         <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="T8" s="1">
-        <f t="shared" si="9"/>
         <v>8</v>
       </c>
     </row>
@@ -7051,18 +7051,18 @@
         <v>17</v>
       </c>
       <c r="L9" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>267</v>
       </c>
       <c r="N9" s="1">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="O9" s="1">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="O9" s="1">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="P9" s="8" t="s">
@@ -7075,11 +7075,11 @@
         <v>1</v>
       </c>
       <c r="S9" s="3">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="T9" s="1">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="T9" s="1">
-        <f t="shared" si="9"/>
         <v>12</v>
       </c>
     </row>
@@ -7123,18 +7123,18 @@
         <v>17</v>
       </c>
       <c r="L10" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>337</v>
       </c>
       <c r="N10" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="O10" s="1">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="O10" s="1">
-        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="P10" s="8" t="s">
@@ -7147,11 +7147,11 @@
         <v>1</v>
       </c>
       <c r="S10" s="3">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="T10" s="1">
         <f t="shared" si="8"/>
-        <v>13</v>
-      </c>
-      <c r="T10" s="1">
-        <f t="shared" si="9"/>
         <v>14</v>
       </c>
     </row>
@@ -7195,18 +7195,18 @@
         <v>17</v>
       </c>
       <c r="L11" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>263</v>
       </c>
       <c r="N11" s="1">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="O11" s="1">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="O11" s="1">
-        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="P11" s="8" t="s">
@@ -7219,11 +7219,11 @@
         <v>1</v>
       </c>
       <c r="S11" s="3">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="T11" s="1">
         <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="T11" s="1">
-        <f t="shared" si="9"/>
         <v>11</v>
       </c>
     </row>
@@ -7267,18 +7267,18 @@
         <v>14</v>
       </c>
       <c r="L12" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N12" s="1">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="O12" s="1">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="O12" s="1">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="P12" s="8" t="s">
@@ -7291,11 +7291,11 @@
         <v>1</v>
       </c>
       <c r="S12" s="3">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="T12" s="1">
         <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="T12" s="1">
-        <f t="shared" si="9"/>
         <v>5</v>
       </c>
     </row>
@@ -7339,18 +7339,18 @@
         <v>15</v>
       </c>
       <c r="L13" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>284</v>
       </c>
       <c r="N13" s="1">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="O13" s="1">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="O13" s="1">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="P13" s="8" t="s">
@@ -7363,11 +7363,11 @@
         <v>1</v>
       </c>
       <c r="S13" s="3">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="T13" s="1">
         <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="T13" s="1">
-        <f t="shared" si="9"/>
         <v>11</v>
       </c>
     </row>
@@ -7411,18 +7411,18 @@
         <v>16</v>
       </c>
       <c r="L14" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>235</v>
       </c>
       <c r="N14" s="1">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="O14" s="1">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="O14" s="1">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="P14" s="8" t="s">
@@ -7435,11 +7435,11 @@
         <v>1</v>
       </c>
       <c r="S14" s="3">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="T14" s="1">
         <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="T14" s="1">
-        <f t="shared" si="9"/>
         <v>5</v>
       </c>
     </row>
@@ -7483,18 +7483,18 @@
         <v>15</v>
       </c>
       <c r="L15" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>287</v>
       </c>
       <c r="N15" s="1">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="O15" s="1">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="O15" s="1">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="P15" s="8" t="s">
@@ -7507,11 +7507,11 @@
         <v>1</v>
       </c>
       <c r="S15" s="3">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="T15" s="1">
         <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="T15" s="1">
-        <f t="shared" si="9"/>
         <v>8</v>
       </c>
     </row>
@@ -7555,18 +7555,18 @@
         <v>12</v>
       </c>
       <c r="L16" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>288</v>
       </c>
       <c r="N16" s="1">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="O16" s="1">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="O16" s="1">
-        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="P16" s="8" t="s">
@@ -7579,11 +7579,11 @@
         <v>1</v>
       </c>
       <c r="S16" s="3">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="T16" s="1">
         <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="T16" s="1">
-        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -7627,18 +7627,18 @@
         <v>17</v>
       </c>
       <c r="L17" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M17" s="14" t="s">
         <v>292</v>
       </c>
       <c r="N17" s="14">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="O17" s="1">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="O17" s="1">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="P17" s="16" t="s">
@@ -7651,11 +7651,11 @@
         <v>1</v>
       </c>
       <c r="S17" s="3">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="T17" s="1">
         <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="T17" s="1">
-        <f t="shared" si="9"/>
         <v>11</v>
       </c>
     </row>
@@ -7699,18 +7699,18 @@
         <v>17</v>
       </c>
       <c r="L18" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M18" s="14" t="s">
         <v>293</v>
       </c>
       <c r="N18" s="14">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="O18" s="1">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="O18" s="1">
-        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="P18" s="16" t="s">
@@ -7723,11 +7723,11 @@
         <v>1</v>
       </c>
       <c r="S18" s="3">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="T18" s="1">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="T18" s="1">
-        <f t="shared" si="9"/>
         <v>6</v>
       </c>
     </row>
@@ -7771,20 +7771,20 @@
         <v>11</v>
       </c>
       <c r="L19" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M19" s="14" t="s">
         <v>294</v>
       </c>
       <c r="N19" s="14">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="O19" s="1">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="O19" s="1">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
       <c r="P19" s="16" t="s">
         <v>352</v>
       </c>
@@ -7795,11 +7795,11 @@
         <v>1</v>
       </c>
       <c r="S19" s="3">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="T19" s="1">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="T19" s="1">
-        <f t="shared" si="9"/>
         <v>6</v>
       </c>
     </row>
@@ -7843,18 +7843,18 @@
         <v>13</v>
       </c>
       <c r="L20" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M20" s="14" t="s">
         <v>711</v>
       </c>
       <c r="N20" s="14">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="O20" s="1">
         <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="O20" s="1">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="P20" s="16" t="s">
@@ -7867,11 +7867,11 @@
         <v>1</v>
       </c>
       <c r="S20" s="3">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="T20" s="1">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="T20" s="1">
-        <f t="shared" si="9"/>
         <v>6</v>
       </c>
     </row>
@@ -7915,18 +7915,18 @@
         <v>14</v>
       </c>
       <c r="L21" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M21" s="14" t="s">
         <v>298</v>
       </c>
       <c r="N21" s="14">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="O21" s="1">
         <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="O21" s="1">
-        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="P21" s="16" t="s">
@@ -7939,11 +7939,11 @@
         <v>1</v>
       </c>
       <c r="S21" s="3">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="T21" s="1">
         <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="T21" s="1">
-        <f t="shared" si="9"/>
         <v>10</v>
       </c>
     </row>
@@ -7987,18 +7987,18 @@
         <v>13</v>
       </c>
       <c r="L22" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M22" s="14" t="s">
         <v>299</v>
       </c>
       <c r="N22" s="14">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="O22" s="1">
         <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="O22" s="1">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="P22" s="16" t="s">
@@ -8011,11 +8011,11 @@
         <v>1</v>
       </c>
       <c r="S22" s="3">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="T22" s="1">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="T22" s="1">
-        <f t="shared" si="9"/>
         <v>9</v>
       </c>
     </row>
@@ -8059,18 +8059,18 @@
         <v>15</v>
       </c>
       <c r="L23" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M23" s="14" t="s">
         <v>320</v>
       </c>
       <c r="N23" s="14">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="O23" s="1">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="O23" s="1">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="P23" s="16" t="s">
@@ -8083,11 +8083,11 @@
         <v>1</v>
       </c>
       <c r="S23" s="3">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="T23" s="1">
         <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="T23" s="1">
-        <f t="shared" si="9"/>
         <v>10</v>
       </c>
     </row>
@@ -8131,18 +8131,18 @@
         <v>12</v>
       </c>
       <c r="L24" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M24" s="14" t="s">
         <v>303</v>
       </c>
       <c r="N24" s="14">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="O24" s="1">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="O24" s="1">
-        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="P24" s="16" t="s">
@@ -8155,11 +8155,11 @@
         <v>1</v>
       </c>
       <c r="S24" s="3">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="T24" s="1">
         <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="T24" s="1">
-        <f t="shared" si="9"/>
         <v>5</v>
       </c>
     </row>
@@ -8203,18 +8203,18 @@
         <v>13</v>
       </c>
       <c r="L25" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M25" s="14" t="s">
         <v>298</v>
       </c>
       <c r="N25" s="14">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="O25" s="1">
         <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="O25" s="1">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="P25" s="16" t="s">
@@ -8227,11 +8227,11 @@
         <v>1</v>
       </c>
       <c r="S25" s="3">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="T25" s="1">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="T25" s="1">
-        <f t="shared" si="9"/>
         <v>6</v>
       </c>
     </row>
@@ -8275,18 +8275,18 @@
         <v>15</v>
       </c>
       <c r="L26" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>302</v>
       </c>
       <c r="N26" s="14">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="O26" s="1">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="O26" s="1">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="P26" s="16" t="s">
@@ -8299,11 +8299,11 @@
         <v>1</v>
       </c>
       <c r="S26" s="3">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="T26" s="1">
         <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="T26" s="1">
-        <f t="shared" si="9"/>
         <v>5</v>
       </c>
     </row>
@@ -8347,18 +8347,18 @@
         <v>15</v>
       </c>
       <c r="L27" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>325</v>
       </c>
       <c r="N27" s="14">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="O27" s="1">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="O27" s="1">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="P27" s="16" t="s">
@@ -8371,11 +8371,11 @@
         <v>1</v>
       </c>
       <c r="S27" s="3">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="T27" s="1">
         <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="T27" s="1">
-        <f t="shared" si="9"/>
         <v>5</v>
       </c>
     </row>
@@ -8419,18 +8419,18 @@
         <v>14</v>
       </c>
       <c r="L28" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M28" s="14" t="s">
         <v>247</v>
       </c>
       <c r="N28" s="14">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="O28" s="1">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="O28" s="1">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="P28" s="16" t="s">
@@ -8443,11 +8443,11 @@
         <v>1</v>
       </c>
       <c r="S28" s="3">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="T28" s="1">
         <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="T28" s="1">
-        <f t="shared" si="9"/>
         <v>5</v>
       </c>
     </row>
@@ -8491,18 +8491,18 @@
         <v>13</v>
       </c>
       <c r="L29" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M29" s="14" t="s">
         <v>252</v>
       </c>
       <c r="N29" s="14">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="O29" s="1">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="O29" s="1">
-        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="P29" s="16" t="s">
@@ -8515,11 +8515,11 @@
         <v>1</v>
       </c>
       <c r="S29" s="3">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="T29" s="1">
         <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="T29" s="1">
-        <f t="shared" si="9"/>
         <v>5</v>
       </c>
     </row>
@@ -8563,18 +8563,18 @@
         <v>13</v>
       </c>
       <c r="L30" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>386</v>
       </c>
       <c r="N30" s="14">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="O30" s="1">
         <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="O30" s="1">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="P30" s="16" t="s">
@@ -8587,11 +8587,11 @@
         <v>1</v>
       </c>
       <c r="S30" s="3">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="T30" s="1">
         <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="T30" s="1">
-        <f t="shared" si="9"/>
         <v>8</v>
       </c>
     </row>
@@ -8635,18 +8635,18 @@
         <v>11</v>
       </c>
       <c r="L31" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M31" s="14" t="s">
         <v>322</v>
       </c>
       <c r="N31" s="14">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="O31" s="1">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="O31" s="1">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="P31" s="16" t="s">
@@ -8659,11 +8659,11 @@
         <v>1</v>
       </c>
       <c r="S31" s="3">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="T31" s="1">
         <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="T31" s="1">
-        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -8707,18 +8707,18 @@
         <v>15</v>
       </c>
       <c r="L32" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M32" s="14" t="s">
         <v>328</v>
       </c>
       <c r="N32" s="14">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="O32" s="14">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="O32" s="14">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="P32" s="16" t="s">
@@ -8731,11 +8731,11 @@
         <v>1</v>
       </c>
       <c r="S32" s="3">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="T32" s="1">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="T32" s="1">
-        <f t="shared" si="9"/>
         <v>6</v>
       </c>
     </row>
@@ -8779,18 +8779,18 @@
         <v>16</v>
       </c>
       <c r="L33" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M33" s="14" t="s">
         <v>394</v>
       </c>
       <c r="N33" s="14">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="O33" s="1">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="O33" s="1">
-        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="P33" s="16" t="s">
@@ -8803,11 +8803,11 @@
         <v>1</v>
       </c>
       <c r="S33" s="3">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="T33" s="1">
         <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="T33" s="1">
-        <f t="shared" si="9"/>
         <v>7</v>
       </c>
     </row>
@@ -8828,41 +8828,41 @@
         <v>795</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" ref="F34:F65" si="11">LEN(C34)</f>
+        <f t="shared" ref="F34:F65" si="10">LEN(C34)</f>
         <v>4</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" ref="G34:G65" si="12">LEN(D34)</f>
+        <f t="shared" ref="G34:G65" si="11">LEN(D34)</f>
         <v>4</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" ref="H34:H65" si="13">LEN(E34)</f>
+        <f t="shared" ref="H34:H65" si="12">LEN(E34)</f>
         <v>4</v>
       </c>
       <c r="I34" s="18" t="s">
         <v>606</v>
       </c>
       <c r="J34" s="12">
-        <f t="shared" ref="J34:J65" si="14">LEN(I34)</f>
+        <f t="shared" ref="J34:J65" si="13">LEN(I34)</f>
         <v>80</v>
       </c>
       <c r="K34" s="12">
-        <f t="shared" ref="K34:K65" si="15">IF(ISBLANK(I34),0,LEN(TRIM(I34))-LEN(SUBSTITUTE(I34," ",""))+1)</f>
+        <f t="shared" ref="K34:K65" si="14">IF(ISBLANK(I34),0,LEN(TRIM(I34))-LEN(SUBSTITUTE(I34," ",""))+1)</f>
         <v>16</v>
       </c>
       <c r="L34" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M34" s="11" t="s">
         <v>605</v>
       </c>
       <c r="N34" s="11">
-        <f t="shared" ref="N34:N65" si="16">LEN(M34)</f>
+        <f t="shared" ref="N34:N65" si="15">LEN(M34)</f>
         <v>5</v>
       </c>
       <c r="O34" s="1">
-        <f t="shared" ref="O34:O65" si="17">LEN(C34)</f>
+        <f t="shared" ref="O34:O65" si="16">LEN(C34)</f>
         <v>4</v>
       </c>
       <c r="P34" s="13" t="s">
@@ -8875,11 +8875,11 @@
         <v>1</v>
       </c>
       <c r="S34" s="3">
-        <f t="shared" ref="S34:S65" si="18">IF(ISBLANK(LEFT(I34,FIND(M34,I34)-1)),0,LEN(TRIM(LEFT(I34,FIND(M34,I34)-1)))-LEN(SUBSTITUTE(LEFT(I34,FIND(M34,I34)-1)," ",""))+1)+1</f>
+        <f t="shared" ref="S34:S65" si="17">IF(ISBLANK(LEFT(I34,FIND(M34,I34)-1)),0,LEN(TRIM(LEFT(I34,FIND(M34,I34)-1)))-LEN(SUBSTITUTE(LEFT(I34,FIND(M34,I34)-1)," ",""))+1)+1</f>
         <v>8</v>
       </c>
       <c r="T34" s="1">
-        <f t="shared" ref="T34:T65" si="19">S34+1</f>
+        <f t="shared" ref="T34:T65" si="18">S34+1</f>
         <v>9</v>
       </c>
     </row>
@@ -8900,41 +8900,41 @@
         <v>796</v>
       </c>
       <c r="F35" s="1">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="G35" s="1">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="G35" s="1">
+      <c r="H35" s="1">
         <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="H35" s="1">
-        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="I35" s="18" t="s">
         <v>608</v>
       </c>
       <c r="J35" s="12">
+        <f t="shared" si="13"/>
+        <v>78</v>
+      </c>
+      <c r="K35" s="12">
         <f t="shared" si="14"/>
-        <v>78</v>
-      </c>
-      <c r="K35" s="12">
-        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="L35" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M35" s="11" t="s">
         <v>607</v>
       </c>
       <c r="N35" s="11">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="O35" s="1">
         <f t="shared" si="16"/>
-        <v>6</v>
-      </c>
-      <c r="O35" s="1">
-        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="P35" s="13" t="s">
@@ -8947,11 +8947,11 @@
         <v>1</v>
       </c>
       <c r="S35" s="3">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="T35" s="1">
         <f t="shared" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="T35" s="1">
-        <f t="shared" si="19"/>
         <v>7</v>
       </c>
     </row>
@@ -8972,41 +8972,41 @@
         <v>798</v>
       </c>
       <c r="F36" s="1">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="G36" s="1">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="G36" s="1">
+      <c r="H36" s="1">
         <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="H36" s="1">
-        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="I36" s="18" t="s">
         <v>867</v>
       </c>
       <c r="J36" s="12">
+        <f t="shared" si="13"/>
+        <v>86</v>
+      </c>
+      <c r="K36" s="12">
         <f t="shared" si="14"/>
-        <v>86</v>
-      </c>
-      <c r="K36" s="12">
-        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="L36" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M36" s="11" t="s">
         <v>611</v>
       </c>
       <c r="N36" s="11">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="O36" s="1">
         <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="O36" s="1">
-        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="P36" s="13" t="s">
@@ -9019,11 +9019,11 @@
         <v>1</v>
       </c>
       <c r="S36" s="3">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="T36" s="1">
         <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="T36" s="1">
-        <f t="shared" si="19"/>
         <v>8</v>
       </c>
     </row>
@@ -9044,41 +9044,41 @@
         <v>799</v>
       </c>
       <c r="F37" s="1">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="G37" s="1">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="G37" s="1">
+      <c r="H37" s="1">
         <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="H37" s="1">
-        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="I37" s="18" t="s">
         <v>613</v>
       </c>
       <c r="J37" s="12">
+        <f t="shared" si="13"/>
+        <v>66</v>
+      </c>
+      <c r="K37" s="12">
         <f t="shared" si="14"/>
-        <v>66</v>
-      </c>
-      <c r="K37" s="12">
-        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="L37" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M37" s="11" t="s">
         <v>612</v>
       </c>
       <c r="N37" s="11">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="O37" s="1">
         <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="O37" s="1">
-        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="P37" s="13" t="s">
@@ -9091,11 +9091,11 @@
         <v>1</v>
       </c>
       <c r="S37" s="3">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="T37" s="1">
         <f t="shared" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="T37" s="1">
-        <f t="shared" si="19"/>
         <v>7</v>
       </c>
     </row>
@@ -9116,41 +9116,41 @@
         <v>801</v>
       </c>
       <c r="F38" s="1">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="G38" s="1">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="G38" s="1">
+      <c r="H38" s="1">
         <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="H38" s="1">
-        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="I38" s="18" t="s">
         <v>614</v>
       </c>
       <c r="J38" s="12">
+        <f t="shared" si="13"/>
+        <v>80</v>
+      </c>
+      <c r="K38" s="12">
         <f t="shared" si="14"/>
-        <v>80</v>
-      </c>
-      <c r="K38" s="12">
-        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="L38" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M38" s="11" t="s">
         <v>615</v>
       </c>
       <c r="N38" s="11">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="O38" s="1">
         <f t="shared" si="16"/>
-        <v>8</v>
-      </c>
-      <c r="O38" s="1">
-        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="P38" s="13" t="s">
@@ -9163,11 +9163,11 @@
         <v>1</v>
       </c>
       <c r="S38" s="3">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="T38" s="1">
         <f t="shared" si="18"/>
-        <v>10</v>
-      </c>
-      <c r="T38" s="1">
-        <f t="shared" si="19"/>
         <v>11</v>
       </c>
     </row>
@@ -9188,41 +9188,41 @@
         <v>802</v>
       </c>
       <c r="F39" s="1">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="G39" s="1">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="G39" s="1">
+      <c r="H39" s="1">
         <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="H39" s="1">
-        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="I39" s="18" t="s">
         <v>690</v>
       </c>
       <c r="J39" s="12">
+        <f t="shared" si="13"/>
+        <v>70</v>
+      </c>
+      <c r="K39" s="12">
         <f t="shared" si="14"/>
-        <v>70</v>
-      </c>
-      <c r="K39" s="12">
-        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="L39" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M39" s="11" t="s">
         <v>616</v>
       </c>
       <c r="N39" s="11">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="O39" s="1">
         <f t="shared" si="16"/>
-        <v>7</v>
-      </c>
-      <c r="O39" s="1">
-        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="P39" s="13" t="s">
@@ -9235,11 +9235,11 @@
         <v>1</v>
       </c>
       <c r="S39" s="3">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="T39" s="1">
         <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="T39" s="1">
-        <f t="shared" si="19"/>
         <v>8</v>
       </c>
     </row>
@@ -9260,41 +9260,41 @@
         <v>803</v>
       </c>
       <c r="F40" s="1">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="G40" s="1">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="G40" s="1">
+      <c r="H40" s="1">
         <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="H40" s="1">
-        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="I40" s="18" t="s">
         <v>684</v>
       </c>
       <c r="J40" s="12">
+        <f t="shared" si="13"/>
+        <v>68</v>
+      </c>
+      <c r="K40" s="12">
         <f t="shared" si="14"/>
-        <v>68</v>
-      </c>
-      <c r="K40" s="12">
-        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="L40" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M40" s="11" t="s">
         <v>617</v>
       </c>
       <c r="N40" s="11">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="O40" s="1">
         <f t="shared" si="16"/>
-        <v>7</v>
-      </c>
-      <c r="O40" s="1">
-        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="P40" s="13" t="s">
@@ -9307,11 +9307,11 @@
         <v>1</v>
       </c>
       <c r="S40" s="3">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="T40" s="1">
         <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="T40" s="1">
-        <f t="shared" si="19"/>
         <v>8</v>
       </c>
     </row>
@@ -9332,41 +9332,41 @@
         <v>804</v>
       </c>
       <c r="F41" s="1">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="G41" s="1">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="G41" s="1">
+      <c r="H41" s="1">
         <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="H41" s="1">
-        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="I41" s="18" t="s">
         <v>618</v>
       </c>
       <c r="J41" s="12">
+        <f t="shared" si="13"/>
+        <v>86</v>
+      </c>
+      <c r="K41" s="12">
         <f t="shared" si="14"/>
-        <v>86</v>
-      </c>
-      <c r="K41" s="12">
-        <f t="shared" si="15"/>
         <v>18</v>
       </c>
       <c r="L41" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M41" s="11" t="s">
         <v>619</v>
       </c>
       <c r="N41" s="11">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="O41" s="1">
         <f t="shared" si="16"/>
-        <v>6</v>
-      </c>
-      <c r="O41" s="1">
-        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="P41" s="13" t="s">
@@ -9379,11 +9379,11 @@
         <v>1</v>
       </c>
       <c r="S41" s="3">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="T41" s="1">
         <f t="shared" si="18"/>
-        <v>9</v>
-      </c>
-      <c r="T41" s="1">
-        <f t="shared" si="19"/>
         <v>10</v>
       </c>
     </row>
@@ -9404,41 +9404,41 @@
         <v>807</v>
       </c>
       <c r="F42" s="1">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="G42" s="1">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="G42" s="1">
+      <c r="H42" s="1">
         <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="H42" s="1">
-        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="I42" s="18" t="s">
         <v>622</v>
       </c>
       <c r="J42" s="12">
+        <f t="shared" si="13"/>
+        <v>79</v>
+      </c>
+      <c r="K42" s="12">
         <f t="shared" si="14"/>
-        <v>79</v>
-      </c>
-      <c r="K42" s="12">
-        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="L42" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M42" s="11" t="s">
         <v>621</v>
       </c>
       <c r="N42" s="11">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="O42" s="1">
         <f t="shared" si="16"/>
-        <v>6</v>
-      </c>
-      <c r="O42" s="1">
-        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="P42" s="13" t="s">
@@ -9451,11 +9451,11 @@
         <v>1</v>
       </c>
       <c r="S42" s="3">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="T42" s="1">
         <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="T42" s="1">
-        <f t="shared" si="19"/>
         <v>6</v>
       </c>
     </row>
@@ -9476,41 +9476,41 @@
         <v>815</v>
       </c>
       <c r="F43" s="1">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="G43" s="1">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="G43" s="1">
+      <c r="H43" s="1">
         <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="H43" s="1">
-        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="I43" s="18" t="s">
         <v>868</v>
       </c>
       <c r="J43" s="12">
+        <f t="shared" si="13"/>
+        <v>73</v>
+      </c>
+      <c r="K43" s="12">
         <f t="shared" si="14"/>
-        <v>73</v>
-      </c>
-      <c r="K43" s="12">
-        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="L43" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M43" s="11" t="s">
         <v>654</v>
       </c>
       <c r="N43" s="11">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="O43" s="1">
         <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="O43" s="1">
-        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="P43" s="13" t="s">
@@ -9523,11 +9523,11 @@
         <v>1</v>
       </c>
       <c r="S43" s="3">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="T43" s="1">
         <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="T43" s="1">
-        <f t="shared" si="19"/>
         <v>8</v>
       </c>
     </row>
@@ -9548,41 +9548,41 @@
         <v>816</v>
       </c>
       <c r="F44" s="1">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="G44" s="1">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="G44" s="1">
+      <c r="H44" s="1">
         <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="H44" s="1">
-        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="I44" s="18" t="s">
         <v>680</v>
       </c>
       <c r="J44" s="12">
+        <f t="shared" si="13"/>
+        <v>61</v>
+      </c>
+      <c r="K44" s="12">
         <f t="shared" si="14"/>
-        <v>61</v>
-      </c>
-      <c r="K44" s="12">
-        <f t="shared" si="15"/>
         <v>11</v>
       </c>
       <c r="L44" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M44" s="11" t="s">
         <v>655</v>
       </c>
       <c r="N44" s="11">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="O44" s="1">
         <f t="shared" si="16"/>
-        <v>6</v>
-      </c>
-      <c r="O44" s="1">
-        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="P44" s="13" t="s">
@@ -9595,11 +9595,11 @@
         <v>1</v>
       </c>
       <c r="S44" s="3">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="T44" s="1">
         <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
-      <c r="T44" s="1">
-        <f t="shared" si="19"/>
         <v>4</v>
       </c>
     </row>
@@ -9620,41 +9620,41 @@
         <v>819</v>
       </c>
       <c r="F45" s="1">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="G45" s="1">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="G45" s="1">
+      <c r="H45" s="1">
         <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="H45" s="1">
-        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="I45" s="18" t="s">
         <v>691</v>
       </c>
       <c r="J45" s="12">
+        <f t="shared" si="13"/>
+        <v>69</v>
+      </c>
+      <c r="K45" s="12">
         <f t="shared" si="14"/>
-        <v>69</v>
-      </c>
-      <c r="K45" s="12">
-        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="L45" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M45" s="11" t="s">
         <v>279</v>
       </c>
       <c r="N45" s="11">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="O45" s="1">
         <f t="shared" si="16"/>
-        <v>6</v>
-      </c>
-      <c r="O45" s="1">
-        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="P45" s="13" t="s">
@@ -9667,11 +9667,11 @@
         <v>1</v>
       </c>
       <c r="S45" s="3">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="T45" s="1">
         <f t="shared" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="T45" s="1">
-        <f t="shared" si="19"/>
         <v>7</v>
       </c>
     </row>
@@ -9692,41 +9692,41 @@
         <v>820</v>
       </c>
       <c r="F46" s="1">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="G46" s="1">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="G46" s="1">
+      <c r="H46" s="1">
         <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="H46" s="1">
-        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="I46" s="18" t="s">
         <v>692</v>
       </c>
       <c r="J46" s="12">
+        <f t="shared" si="13"/>
+        <v>70</v>
+      </c>
+      <c r="K46" s="12">
         <f t="shared" si="14"/>
-        <v>70</v>
-      </c>
-      <c r="K46" s="12">
-        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="L46" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M46" s="11" t="s">
         <v>423</v>
       </c>
       <c r="N46" s="11">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="O46" s="1">
         <f t="shared" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="O46" s="1">
-        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="P46" s="13" t="s">
@@ -9739,11 +9739,11 @@
         <v>1</v>
       </c>
       <c r="S46" s="3">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="T46" s="1">
         <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="T46" s="1">
-        <f t="shared" si="19"/>
         <v>8</v>
       </c>
     </row>
@@ -9764,41 +9764,41 @@
         <v>822</v>
       </c>
       <c r="F47" s="1">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="G47" s="1">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="G47" s="1">
+      <c r="H47" s="1">
         <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="H47" s="1">
-        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="I47" s="18" t="s">
         <v>869</v>
       </c>
       <c r="J47" s="12">
+        <f t="shared" si="13"/>
+        <v>81</v>
+      </c>
+      <c r="K47" s="12">
         <f t="shared" si="14"/>
-        <v>81</v>
-      </c>
-      <c r="K47" s="12">
-        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="L47" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M47" s="11" t="s">
         <v>660</v>
       </c>
       <c r="N47" s="11">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="O47" s="1">
         <f t="shared" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="O47" s="1">
-        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="P47" s="13" t="s">
@@ -9811,11 +9811,11 @@
         <v>1</v>
       </c>
       <c r="S47" s="3">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="T47" s="1">
         <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="T47" s="1">
-        <f t="shared" si="19"/>
         <v>5</v>
       </c>
     </row>
@@ -9836,41 +9836,41 @@
         <v>826</v>
       </c>
       <c r="F48" s="1">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="G48" s="1">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="G48" s="1">
+      <c r="H48" s="1">
         <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="H48" s="1">
-        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="I48" s="18" t="s">
         <v>666</v>
       </c>
       <c r="J48" s="12">
+        <f t="shared" si="13"/>
+        <v>72</v>
+      </c>
+      <c r="K48" s="12">
         <f t="shared" si="14"/>
-        <v>72</v>
-      </c>
-      <c r="K48" s="12">
-        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="L48" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M48" s="11" t="s">
         <v>662</v>
       </c>
       <c r="N48" s="11">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="O48" s="1">
         <f t="shared" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="O48" s="1">
-        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="P48" s="13" t="s">
@@ -9883,11 +9883,11 @@
         <v>1</v>
       </c>
       <c r="S48" s="3">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="T48" s="1">
         <f t="shared" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="T48" s="1">
-        <f t="shared" si="19"/>
         <v>7</v>
       </c>
     </row>
@@ -9908,41 +9908,41 @@
         <v>828</v>
       </c>
       <c r="F49" s="1">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="G49" s="1">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="G49" s="1">
+      <c r="H49" s="1">
         <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="H49" s="1">
-        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="I49" s="18" t="s">
         <v>870</v>
       </c>
       <c r="J49" s="12">
+        <f t="shared" si="13"/>
+        <v>51</v>
+      </c>
+      <c r="K49" s="12">
         <f t="shared" si="14"/>
-        <v>51</v>
-      </c>
-      <c r="K49" s="12">
-        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="L49" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M49" s="11" t="s">
         <v>664</v>
       </c>
       <c r="N49" s="11">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="O49" s="1">
         <f t="shared" si="16"/>
-        <v>8</v>
-      </c>
-      <c r="O49" s="1">
-        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="P49" s="13" t="s">
@@ -9955,11 +9955,11 @@
         <v>1</v>
       </c>
       <c r="S49" s="3">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="T49" s="1">
         <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="T49" s="1">
-        <f t="shared" si="19"/>
         <v>5</v>
       </c>
     </row>
@@ -9980,41 +9980,41 @@
         <v>837</v>
       </c>
       <c r="F50" s="1">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="G50" s="1">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="G50" s="1">
+      <c r="H50" s="1">
         <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="H50" s="1">
-        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="I50" s="18" t="s">
         <v>871</v>
       </c>
       <c r="J50" s="12">
+        <f t="shared" si="13"/>
+        <v>78</v>
+      </c>
+      <c r="K50" s="12">
         <f t="shared" si="14"/>
-        <v>78</v>
-      </c>
-      <c r="K50" s="12">
-        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="L50" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M50" s="11" t="s">
         <v>670</v>
       </c>
       <c r="N50" s="11">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="O50" s="1">
         <f t="shared" si="16"/>
-        <v>7</v>
-      </c>
-      <c r="O50" s="1">
-        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="P50" s="13" t="s">
@@ -10027,11 +10027,11 @@
         <v>1</v>
       </c>
       <c r="S50" s="3">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="T50" s="1">
         <f t="shared" si="18"/>
-        <v>9</v>
-      </c>
-      <c r="T50" s="1">
-        <f t="shared" si="19"/>
         <v>10</v>
       </c>
     </row>
@@ -10052,41 +10052,41 @@
         <v>840</v>
       </c>
       <c r="F51" s="1">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="G51" s="1">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="G51" s="1">
+      <c r="H51" s="1">
         <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="H51" s="1">
-        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="I51" s="18" t="s">
         <v>872</v>
       </c>
       <c r="J51" s="12">
+        <f t="shared" si="13"/>
+        <v>75</v>
+      </c>
+      <c r="K51" s="12">
         <f t="shared" si="14"/>
-        <v>75</v>
-      </c>
-      <c r="K51" s="12">
-        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="L51" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M51" s="11" t="s">
         <v>611</v>
       </c>
       <c r="N51" s="11">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="O51" s="1">
         <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="O51" s="1">
-        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="P51" s="13" t="s">
@@ -10099,11 +10099,11 @@
         <v>1</v>
       </c>
       <c r="S51" s="3">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="T51" s="1">
         <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="T51" s="1">
-        <f t="shared" si="19"/>
         <v>8</v>
       </c>
     </row>
@@ -10124,41 +10124,41 @@
         <v>841</v>
       </c>
       <c r="F52" s="1">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="G52" s="1">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="G52" s="1">
+      <c r="H52" s="1">
         <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="H52" s="1">
-        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="I52" s="18" t="s">
         <v>892</v>
       </c>
       <c r="J52" s="12">
+        <f t="shared" si="13"/>
+        <v>76</v>
+      </c>
+      <c r="K52" s="12">
         <f t="shared" si="14"/>
-        <v>76</v>
-      </c>
-      <c r="K52" s="12">
-        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="L52" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M52" s="11" t="s">
         <v>674</v>
       </c>
       <c r="N52" s="11">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="O52" s="1">
         <f t="shared" si="16"/>
-        <v>7</v>
-      </c>
-      <c r="O52" s="1">
-        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="P52" s="13" t="s">
@@ -10171,11 +10171,11 @@
         <v>1</v>
       </c>
       <c r="S52" s="3">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="T52" s="1">
         <f t="shared" si="18"/>
-        <v>10</v>
-      </c>
-      <c r="T52" s="1">
-        <f t="shared" si="19"/>
         <v>11</v>
       </c>
     </row>
@@ -10196,41 +10196,41 @@
         <v>842</v>
       </c>
       <c r="F53" s="1">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="G53" s="1">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="G53" s="1">
+      <c r="H53" s="1">
         <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="H53" s="1">
-        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="I53" s="18" t="s">
         <v>632</v>
       </c>
       <c r="J53" s="12">
+        <f t="shared" si="13"/>
+        <v>87</v>
+      </c>
+      <c r="K53" s="12">
         <f t="shared" si="14"/>
-        <v>87</v>
-      </c>
-      <c r="K53" s="12">
-        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="L53" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M53" s="11" t="s">
         <v>297</v>
       </c>
       <c r="N53" s="11">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="O53" s="1">
         <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="O53" s="1">
-        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="P53" s="13" t="s">
@@ -10243,11 +10243,11 @@
         <v>1</v>
       </c>
       <c r="S53" s="3">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="T53" s="1">
         <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="T53" s="1">
-        <f t="shared" si="19"/>
         <v>6</v>
       </c>
     </row>
@@ -10268,41 +10268,41 @@
         <v>845</v>
       </c>
       <c r="F54" s="1">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="G54" s="1">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="G54" s="1">
+      <c r="H54" s="1">
         <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="H54" s="1">
-        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="I54" s="18" t="s">
         <v>635</v>
       </c>
       <c r="J54" s="12">
+        <f t="shared" si="13"/>
+        <v>78</v>
+      </c>
+      <c r="K54" s="12">
         <f t="shared" si="14"/>
-        <v>78</v>
-      </c>
-      <c r="K54" s="12">
-        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="L54" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M54" s="11" t="s">
         <v>636</v>
       </c>
       <c r="N54" s="11">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="O54" s="1">
         <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="O54" s="1">
-        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="P54" s="13" t="s">
@@ -10315,11 +10315,11 @@
         <v>1</v>
       </c>
       <c r="S54" s="3">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="T54" s="1">
         <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="T54" s="1">
-        <f t="shared" si="19"/>
         <v>6</v>
       </c>
     </row>
@@ -10340,43 +10340,43 @@
         <v>847</v>
       </c>
       <c r="F55" s="1">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="G55" s="1">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="G55" s="1">
+      <c r="H55" s="1">
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="H55" s="1">
-        <f t="shared" si="13"/>
-        <v>6</v>
-      </c>
       <c r="I55" s="18" t="s">
         <v>637</v>
       </c>
       <c r="J55" s="12">
+        <f t="shared" si="13"/>
+        <v>79</v>
+      </c>
+      <c r="K55" s="12">
         <f t="shared" si="14"/>
-        <v>79</v>
-      </c>
-      <c r="K55" s="12">
-        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="L55" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M55" s="11" t="s">
         <v>638</v>
       </c>
       <c r="N55" s="11">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="O55" s="1">
         <f t="shared" si="16"/>
         <v>6</v>
       </c>
-      <c r="O55" s="1">
-        <f t="shared" si="17"/>
-        <v>6</v>
-      </c>
       <c r="P55" s="13" t="s">
         <v>709</v>
       </c>
@@ -10387,11 +10387,11 @@
         <v>1</v>
       </c>
       <c r="S55" s="3">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="T55" s="1">
         <f t="shared" si="18"/>
-        <v>9</v>
-      </c>
-      <c r="T55" s="1">
-        <f t="shared" si="19"/>
         <v>10</v>
       </c>
     </row>
@@ -10412,41 +10412,41 @@
         <v>746</v>
       </c>
       <c r="F56" s="1">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="G56" s="1">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="G56" s="1">
+      <c r="H56" s="1">
         <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="H56" s="1">
-        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="I56" s="7" t="s">
         <v>873</v>
       </c>
       <c r="J56" s="15">
+        <f t="shared" si="13"/>
+        <v>69</v>
+      </c>
+      <c r="K56" s="15">
         <f t="shared" si="14"/>
-        <v>69</v>
-      </c>
-      <c r="K56" s="15">
-        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="L56" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M56" s="14" t="s">
         <v>269</v>
       </c>
       <c r="N56" s="14">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="O56" s="1">
         <f t="shared" si="16"/>
-        <v>6</v>
-      </c>
-      <c r="O56" s="1">
-        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="P56" s="16"/>
@@ -10455,11 +10455,11 @@
         <v>0</v>
       </c>
       <c r="S56" s="3">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="T56" s="1">
         <f t="shared" si="18"/>
-        <v>8</v>
-      </c>
-      <c r="T56" s="1">
-        <f t="shared" si="19"/>
         <v>9</v>
       </c>
     </row>
@@ -10480,41 +10480,41 @@
         <v>747</v>
       </c>
       <c r="F57" s="1">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="G57" s="1">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="G57" s="1">
+      <c r="H57" s="1">
         <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="H57" s="1">
-        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="I57" s="7" t="s">
         <v>277</v>
       </c>
       <c r="J57" s="15">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="K57" s="15">
         <f t="shared" si="14"/>
-        <v>82</v>
-      </c>
-      <c r="K57" s="15">
-        <f t="shared" si="15"/>
         <v>15</v>
       </c>
       <c r="L57" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M57" s="14" t="s">
         <v>276</v>
       </c>
       <c r="N57" s="14">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="O57" s="1">
         <f t="shared" si="16"/>
-        <v>6</v>
-      </c>
-      <c r="O57" s="1">
-        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="P57" s="16"/>
@@ -10523,11 +10523,11 @@
         <v>0</v>
       </c>
       <c r="S57" s="3">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="T57" s="1">
         <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="T57" s="1">
-        <f t="shared" si="19"/>
         <v>8</v>
       </c>
     </row>
@@ -10548,41 +10548,41 @@
         <v>748</v>
       </c>
       <c r="F58" s="1">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="G58" s="1">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="G58" s="1">
+      <c r="H58" s="1">
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="H58" s="1">
-        <f t="shared" si="13"/>
-        <v>6</v>
-      </c>
       <c r="I58" s="7" t="s">
         <v>278</v>
       </c>
       <c r="J58" s="15">
+        <f t="shared" si="13"/>
+        <v>80</v>
+      </c>
+      <c r="K58" s="15">
         <f t="shared" si="14"/>
-        <v>80</v>
-      </c>
-      <c r="K58" s="15">
-        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="L58" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M58" s="14" t="s">
         <v>279</v>
       </c>
       <c r="N58" s="14">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="O58" s="1">
         <f t="shared" si="16"/>
-        <v>6</v>
-      </c>
-      <c r="O58" s="1">
-        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="P58" s="16"/>
@@ -10591,11 +10591,11 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="T58" s="1">
         <f t="shared" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="T58" s="1">
-        <f t="shared" si="19"/>
         <v>7</v>
       </c>
     </row>
@@ -10616,41 +10616,41 @@
         <v>749</v>
       </c>
       <c r="F59" s="1">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="G59" s="1">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="G59" s="1">
+      <c r="H59" s="1">
         <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="H59" s="1">
-        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>280</v>
       </c>
       <c r="J59" s="15">
+        <f t="shared" si="13"/>
+        <v>76</v>
+      </c>
+      <c r="K59" s="15">
         <f t="shared" si="14"/>
-        <v>76</v>
-      </c>
-      <c r="K59" s="15">
-        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="L59" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M59" s="14" t="s">
         <v>281</v>
       </c>
       <c r="N59" s="14">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="O59" s="1">
         <f t="shared" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="O59" s="1">
-        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="P59" s="16"/>
@@ -10659,11 +10659,11 @@
         <v>0</v>
       </c>
       <c r="S59" s="3">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="T59" s="1">
         <f t="shared" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="T59" s="1">
-        <f t="shared" si="19"/>
         <v>7</v>
       </c>
     </row>
@@ -10684,41 +10684,41 @@
         <v>750</v>
       </c>
       <c r="F60" s="1">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="G60" s="1">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="G60" s="1">
+      <c r="H60" s="1">
         <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="H60" s="1">
-        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="I60" s="7" t="s">
         <v>898</v>
       </c>
       <c r="J60" s="15">
+        <f t="shared" si="13"/>
+        <v>78</v>
+      </c>
+      <c r="K60" s="15">
         <f t="shared" si="14"/>
-        <v>78</v>
-      </c>
-      <c r="K60" s="15">
-        <f t="shared" si="15"/>
         <v>17</v>
       </c>
       <c r="L60" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M60" s="14" t="s">
         <v>282</v>
       </c>
       <c r="N60" s="14">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="O60" s="1">
         <f t="shared" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="O60" s="1">
-        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="P60" s="16"/>
@@ -10727,11 +10727,11 @@
         <v>0</v>
       </c>
       <c r="S60" s="3">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="T60" s="1">
         <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="T60" s="1">
-        <f t="shared" si="19"/>
         <v>6</v>
       </c>
     </row>
@@ -10752,41 +10752,41 @@
         <v>751</v>
       </c>
       <c r="F61" s="1">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="G61" s="1">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="G61" s="1">
+      <c r="H61" s="1">
         <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="H61" s="1">
-        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>265</v>
       </c>
       <c r="J61" s="15">
+        <f t="shared" si="13"/>
+        <v>87</v>
+      </c>
+      <c r="K61" s="15">
         <f t="shared" si="14"/>
-        <v>87</v>
-      </c>
-      <c r="K61" s="15">
-        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="L61" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M61" s="14" t="s">
         <v>266</v>
       </c>
       <c r="N61" s="14">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="O61" s="1">
         <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="O61" s="1">
-        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="P61" s="16"/>
@@ -10795,11 +10795,11 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="T61" s="1">
         <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="T61" s="1">
-        <f t="shared" si="19"/>
         <v>5</v>
       </c>
     </row>
@@ -10820,41 +10820,41 @@
         <v>752</v>
       </c>
       <c r="F62" s="1">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="G62" s="1">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="G62" s="1">
+      <c r="H62" s="1">
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="H62" s="1">
-        <f t="shared" si="13"/>
-        <v>6</v>
-      </c>
       <c r="I62" s="7" t="s">
         <v>874</v>
       </c>
       <c r="J62" s="15">
+        <f t="shared" si="13"/>
+        <v>78</v>
+      </c>
+      <c r="K62" s="15">
         <f t="shared" si="14"/>
-        <v>78</v>
-      </c>
-      <c r="K62" s="15">
-        <f t="shared" si="15"/>
         <v>15</v>
       </c>
       <c r="L62" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M62" s="14" t="s">
         <v>264</v>
       </c>
       <c r="N62" s="14">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="O62" s="1">
         <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="O62" s="1">
-        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="P62" s="16"/>
@@ -10863,11 +10863,11 @@
         <v>0</v>
       </c>
       <c r="S62" s="3">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="T62" s="1">
         <f t="shared" si="18"/>
-        <v>9</v>
-      </c>
-      <c r="T62" s="1">
-        <f t="shared" si="19"/>
         <v>10</v>
       </c>
     </row>
@@ -10888,41 +10888,41 @@
         <v>753</v>
       </c>
       <c r="F63" s="1">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="G63" s="1">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="G63" s="1">
+      <c r="H63" s="1">
         <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="H63" s="1">
-        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="I63" s="7" t="s">
         <v>400</v>
       </c>
       <c r="J63" s="15">
+        <f t="shared" si="13"/>
+        <v>85</v>
+      </c>
+      <c r="K63" s="15">
         <f t="shared" si="14"/>
-        <v>85</v>
-      </c>
-      <c r="K63" s="15">
-        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="L63" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M63" s="14" t="s">
         <v>233</v>
       </c>
       <c r="N63" s="14">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="O63" s="1">
         <f t="shared" si="16"/>
-        <v>8</v>
-      </c>
-      <c r="O63" s="1">
-        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="P63" s="16"/>
@@ -10931,11 +10931,11 @@
         <v>0</v>
       </c>
       <c r="S63" s="3">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="T63" s="1">
         <f t="shared" si="18"/>
-        <v>8</v>
-      </c>
-      <c r="T63" s="1">
-        <f t="shared" si="19"/>
         <v>9</v>
       </c>
     </row>
@@ -10956,41 +10956,41 @@
         <v>754</v>
       </c>
       <c r="F64" s="1">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="G64" s="1">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="G64" s="1">
+      <c r="H64" s="1">
         <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="H64" s="1">
-        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>875</v>
       </c>
       <c r="J64" s="15">
+        <f t="shared" si="13"/>
+        <v>69</v>
+      </c>
+      <c r="K64" s="15">
         <f t="shared" si="14"/>
-        <v>69</v>
-      </c>
-      <c r="K64" s="15">
-        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="L64" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M64" s="14" t="s">
         <v>245</v>
       </c>
       <c r="N64" s="14">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="O64" s="1">
         <f t="shared" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="O64" s="1">
-        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="P64" s="16"/>
@@ -10999,11 +10999,11 @@
         <v>0</v>
       </c>
       <c r="S64" s="3">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="T64" s="1">
         <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="T64" s="1">
-        <f t="shared" si="19"/>
         <v>8</v>
       </c>
     </row>
@@ -11024,41 +11024,41 @@
         <v>755</v>
       </c>
       <c r="F65" s="1">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="G65" s="1">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="G65" s="1">
+      <c r="H65" s="1">
         <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="H65" s="1">
-        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="I65" s="7" t="s">
         <v>285</v>
       </c>
       <c r="J65" s="15">
+        <f t="shared" si="13"/>
+        <v>86</v>
+      </c>
+      <c r="K65" s="15">
         <f t="shared" si="14"/>
-        <v>86</v>
-      </c>
-      <c r="K65" s="15">
-        <f t="shared" si="15"/>
         <v>15</v>
       </c>
       <c r="L65" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M65" s="14" t="s">
         <v>286</v>
       </c>
       <c r="N65" s="14">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="O65" s="1">
         <f t="shared" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="O65" s="1">
-        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="P65" s="16"/>
@@ -11067,11 +11067,11 @@
         <v>0</v>
       </c>
       <c r="S65" s="3">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="T65" s="1">
         <f t="shared" si="18"/>
-        <v>10</v>
-      </c>
-      <c r="T65" s="1">
-        <f t="shared" si="19"/>
         <v>11</v>
       </c>
     </row>
@@ -11092,41 +11092,41 @@
         <v>756</v>
       </c>
       <c r="F66" s="1">
-        <f t="shared" ref="F66:F97" si="20">LEN(C66)</f>
+        <f t="shared" ref="F66:F97" si="19">LEN(C66)</f>
         <v>5</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" ref="G66:G97" si="21">LEN(D66)</f>
+        <f t="shared" ref="G66:G97" si="20">LEN(D66)</f>
         <v>5</v>
       </c>
       <c r="H66" s="1">
-        <f t="shared" ref="H66:H97" si="22">LEN(E66)</f>
+        <f t="shared" ref="H66:H97" si="21">LEN(E66)</f>
         <v>5</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>683</v>
       </c>
       <c r="J66" s="15">
-        <f t="shared" ref="J66:J97" si="23">LEN(I66)</f>
+        <f t="shared" ref="J66:J97" si="22">LEN(I66)</f>
         <v>77</v>
       </c>
       <c r="K66" s="15">
-        <f t="shared" ref="K66:K97" si="24">IF(ISBLANK(I66),0,LEN(TRIM(I66))-LEN(SUBSTITUTE(I66," ",""))+1)</f>
+        <f t="shared" ref="K66:K97" si="23">IF(ISBLANK(I66),0,LEN(TRIM(I66))-LEN(SUBSTITUTE(I66," ",""))+1)</f>
         <v>15</v>
       </c>
       <c r="L66" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="M66" s="14" t="s">
         <v>291</v>
       </c>
       <c r="N66" s="14">
-        <f t="shared" ref="N66:N97" si="25">LEN(M66)</f>
+        <f t="shared" ref="N66:N97" si="24">LEN(M66)</f>
         <v>5</v>
       </c>
       <c r="O66" s="1">
-        <f t="shared" ref="O66:O97" si="26">LEN(C66)</f>
+        <f t="shared" ref="O66:O97" si="25">LEN(C66)</f>
         <v>5</v>
       </c>
       <c r="P66" s="16"/>
@@ -11135,11 +11135,11 @@
         <v>0</v>
       </c>
       <c r="S66" s="3">
-        <f t="shared" ref="S66:S97" si="27">IF(ISBLANK(LEFT(I66,FIND(M66,I66)-1)),0,LEN(TRIM(LEFT(I66,FIND(M66,I66)-1)))-LEN(SUBSTITUTE(LEFT(I66,FIND(M66,I66)-1)," ",""))+1)+1</f>
+        <f t="shared" ref="S66:S97" si="26">IF(ISBLANK(LEFT(I66,FIND(M66,I66)-1)),0,LEN(TRIM(LEFT(I66,FIND(M66,I66)-1)))-LEN(SUBSTITUTE(LEFT(I66,FIND(M66,I66)-1)," ",""))+1)+1</f>
         <v>7</v>
       </c>
       <c r="T66" s="1">
-        <f t="shared" ref="T66:T97" si="28">S66+1</f>
+        <f t="shared" ref="T66:T97" si="27">S66+1</f>
         <v>8</v>
       </c>
     </row>
@@ -11160,41 +11160,41 @@
         <v>757</v>
       </c>
       <c r="F67" s="1">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="G67" s="1">
         <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="G67" s="1">
+      <c r="H67" s="1">
         <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="H67" s="1">
-        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>370</v>
       </c>
       <c r="J67" s="15">
+        <f t="shared" si="22"/>
+        <v>80</v>
+      </c>
+      <c r="K67" s="15">
         <f t="shared" si="23"/>
-        <v>80</v>
-      </c>
-      <c r="K67" s="15">
-        <f t="shared" si="24"/>
         <v>13</v>
       </c>
       <c r="L67" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="L67:L130" si="28">IF(J67&gt;87, "WILL NOT FIT ON SCREEN!", "Yes")</f>
         <v>Yes</v>
       </c>
       <c r="M67" s="14" t="s">
         <v>289</v>
       </c>
       <c r="N67" s="14">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="O67" s="1">
         <f t="shared" si="25"/>
-        <v>8</v>
-      </c>
-      <c r="O67" s="1">
-        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="P67" s="16"/>
@@ -11203,11 +11203,11 @@
         <v>0</v>
       </c>
       <c r="S67" s="3">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="T67" s="1">
         <f t="shared" si="27"/>
-        <v>6</v>
-      </c>
-      <c r="T67" s="1">
-        <f t="shared" si="28"/>
         <v>7</v>
       </c>
     </row>
@@ -11228,41 +11228,41 @@
         <v>758</v>
       </c>
       <c r="F68" s="1">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="G68" s="1">
         <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="G68" s="1">
+      <c r="H68" s="1">
         <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="H68" s="1">
-        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>368</v>
       </c>
       <c r="J68" s="15">
+        <f t="shared" si="22"/>
+        <v>66</v>
+      </c>
+      <c r="K68" s="15">
         <f t="shared" si="23"/>
-        <v>66</v>
-      </c>
-      <c r="K68" s="15">
-        <f t="shared" si="24"/>
         <v>13</v>
       </c>
       <c r="L68" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M68" s="14" t="s">
         <v>332</v>
       </c>
       <c r="N68" s="14">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="O68" s="1">
         <f t="shared" si="25"/>
-        <v>5</v>
-      </c>
-      <c r="O68" s="1">
-        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="P68" s="16"/>
@@ -11271,11 +11271,11 @@
         <v>0</v>
       </c>
       <c r="S68" s="3">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="T68" s="1">
         <f t="shared" si="27"/>
-        <v>6</v>
-      </c>
-      <c r="T68" s="1">
-        <f t="shared" si="28"/>
         <v>7</v>
       </c>
     </row>
@@ -11296,41 +11296,41 @@
         <v>759</v>
       </c>
       <c r="F69" s="1">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="G69" s="1">
         <f t="shared" si="20"/>
         <v>5</v>
       </c>
-      <c r="G69" s="1">
+      <c r="H69" s="1">
         <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="H69" s="1">
-        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="I69" s="7" t="s">
         <v>401</v>
       </c>
       <c r="J69" s="15">
+        <f t="shared" si="22"/>
+        <v>83</v>
+      </c>
+      <c r="K69" s="15">
         <f t="shared" si="23"/>
-        <v>83</v>
-      </c>
-      <c r="K69" s="15">
-        <f t="shared" si="24"/>
         <v>16</v>
       </c>
       <c r="L69" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M69" s="14" t="s">
         <v>297</v>
       </c>
       <c r="N69" s="14">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="O69" s="1">
         <f t="shared" si="25"/>
-        <v>5</v>
-      </c>
-      <c r="O69" s="1">
-        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="P69" s="16"/>
@@ -11339,11 +11339,11 @@
         <v>0</v>
       </c>
       <c r="S69" s="3">
+        <f t="shared" si="26"/>
+        <v>10</v>
+      </c>
+      <c r="T69" s="1">
         <f t="shared" si="27"/>
-        <v>10</v>
-      </c>
-      <c r="T69" s="1">
-        <f t="shared" si="28"/>
         <v>11</v>
       </c>
     </row>
@@ -11364,41 +11364,41 @@
         <v>760</v>
       </c>
       <c r="F70" s="1">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="G70" s="1">
         <f t="shared" si="20"/>
         <v>5</v>
       </c>
-      <c r="G70" s="1">
+      <c r="H70" s="1">
         <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="H70" s="1">
-        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="I70" s="7" t="s">
         <v>335</v>
       </c>
       <c r="J70" s="15">
+        <f t="shared" si="22"/>
+        <v>66</v>
+      </c>
+      <c r="K70" s="15">
         <f t="shared" si="23"/>
-        <v>66</v>
-      </c>
-      <c r="K70" s="15">
-        <f t="shared" si="24"/>
         <v>13</v>
       </c>
       <c r="L70" s="5" t="str">
-        <f t="shared" ref="L70:L133" si="29">IF(J70&gt;88, "WILL NOT FIT ON SCREEN!", "Yes")</f>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M70" s="14" t="s">
         <v>336</v>
       </c>
       <c r="N70" s="14">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="O70" s="1">
         <f t="shared" si="25"/>
-        <v>4</v>
-      </c>
-      <c r="O70" s="1">
-        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="P70" s="16"/>
@@ -11407,11 +11407,11 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
+        <f t="shared" si="26"/>
+        <v>7</v>
+      </c>
+      <c r="T70" s="1">
         <f t="shared" si="27"/>
-        <v>7</v>
-      </c>
-      <c r="T70" s="1">
-        <f t="shared" si="28"/>
         <v>8</v>
       </c>
     </row>
@@ -11432,41 +11432,41 @@
         <v>761</v>
       </c>
       <c r="F71" s="1">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="G71" s="1">
         <f t="shared" si="20"/>
         <v>5</v>
       </c>
-      <c r="G71" s="1">
+      <c r="H71" s="1">
         <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="H71" s="1">
-        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="I71" s="7" t="s">
         <v>334</v>
       </c>
       <c r="J71" s="15">
+        <f t="shared" si="22"/>
+        <v>87</v>
+      </c>
+      <c r="K71" s="15">
         <f t="shared" si="23"/>
-        <v>87</v>
-      </c>
-      <c r="K71" s="15">
-        <f t="shared" si="24"/>
         <v>16</v>
       </c>
       <c r="L71" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M71" s="14" t="s">
         <v>333</v>
       </c>
       <c r="N71" s="14">
+        <f t="shared" si="24"/>
+        <v>6</v>
+      </c>
+      <c r="O71" s="1">
         <f t="shared" si="25"/>
-        <v>6</v>
-      </c>
-      <c r="O71" s="1">
-        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="P71" s="16"/>
@@ -11475,11 +11475,11 @@
         <v>0</v>
       </c>
       <c r="S71" s="3">
+        <f t="shared" si="26"/>
+        <v>12</v>
+      </c>
+      <c r="T71" s="1">
         <f t="shared" si="27"/>
-        <v>12</v>
-      </c>
-      <c r="T71" s="1">
-        <f t="shared" si="28"/>
         <v>13</v>
       </c>
     </row>
@@ -11500,41 +11500,41 @@
         <v>762</v>
       </c>
       <c r="F72" s="1">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="G72" s="1">
         <f t="shared" si="20"/>
         <v>5</v>
       </c>
-      <c r="G72" s="1">
+      <c r="H72" s="1">
         <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="H72" s="1">
-        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="I72" s="7" t="s">
         <v>876</v>
       </c>
       <c r="J72" s="15">
+        <f t="shared" si="22"/>
+        <v>77</v>
+      </c>
+      <c r="K72" s="15">
         <f t="shared" si="23"/>
-        <v>77</v>
-      </c>
-      <c r="K72" s="15">
-        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="L72" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M72" s="14" t="s">
         <v>268</v>
       </c>
       <c r="N72" s="14">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="O72" s="1">
         <f t="shared" si="25"/>
-        <v>5</v>
-      </c>
-      <c r="O72" s="1">
-        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="P72" s="16"/>
@@ -11543,11 +11543,11 @@
         <v>0</v>
       </c>
       <c r="S72" s="3">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="T72" s="1">
         <f t="shared" si="27"/>
-        <v>6</v>
-      </c>
-      <c r="T72" s="1">
-        <f t="shared" si="28"/>
         <v>7</v>
       </c>
     </row>
@@ -11568,41 +11568,41 @@
         <v>763</v>
       </c>
       <c r="F73" s="1">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="G73" s="1">
         <f t="shared" si="20"/>
         <v>5</v>
       </c>
-      <c r="G73" s="1">
+      <c r="H73" s="1">
         <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="H73" s="1">
-        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>296</v>
       </c>
       <c r="J73" s="15">
+        <f t="shared" si="22"/>
+        <v>70</v>
+      </c>
+      <c r="K73" s="15">
         <f t="shared" si="23"/>
-        <v>70</v>
-      </c>
-      <c r="K73" s="15">
-        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="L73" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M73" s="14" t="s">
         <v>295</v>
       </c>
       <c r="N73" s="14">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="O73" s="1">
         <f t="shared" si="25"/>
-        <v>7</v>
-      </c>
-      <c r="O73" s="1">
-        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="P73" s="16"/>
@@ -11611,11 +11611,11 @@
         <v>0</v>
       </c>
       <c r="S73" s="3">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="T73" s="1">
         <f t="shared" si="27"/>
-        <v>4</v>
-      </c>
-      <c r="T73" s="1">
-        <f t="shared" si="28"/>
         <v>5</v>
       </c>
     </row>
@@ -11636,41 +11636,41 @@
         <v>764</v>
       </c>
       <c r="F74" s="1">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="G74" s="1">
         <f t="shared" si="20"/>
         <v>5</v>
       </c>
-      <c r="G74" s="1">
+      <c r="H74" s="1">
         <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="H74" s="1">
-        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="I74" s="7" t="s">
         <v>250</v>
       </c>
       <c r="J74" s="15">
+        <f t="shared" si="22"/>
+        <v>85</v>
+      </c>
+      <c r="K74" s="15">
         <f t="shared" si="23"/>
-        <v>85</v>
-      </c>
-      <c r="K74" s="15">
-        <f t="shared" si="24"/>
         <v>13</v>
       </c>
       <c r="L74" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M74" s="14" t="s">
         <v>248</v>
       </c>
       <c r="N74" s="14">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="O74" s="1">
         <f t="shared" si="25"/>
-        <v>8</v>
-      </c>
-      <c r="O74" s="1">
-        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="P74" s="16"/>
@@ -11679,11 +11679,11 @@
         <v>0</v>
       </c>
       <c r="S74" s="3">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="T74" s="1">
         <f t="shared" si="27"/>
-        <v>6</v>
-      </c>
-      <c r="T74" s="1">
-        <f t="shared" si="28"/>
         <v>7</v>
       </c>
     </row>
@@ -11704,41 +11704,41 @@
         <v>765</v>
       </c>
       <c r="F75" s="1">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="G75" s="1">
         <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="G75" s="1">
+      <c r="H75" s="1">
         <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="H75" s="1">
-        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="I75" s="7" t="s">
         <v>313</v>
       </c>
       <c r="J75" s="15">
+        <f t="shared" si="22"/>
+        <v>73</v>
+      </c>
+      <c r="K75" s="15">
         <f t="shared" si="23"/>
-        <v>73</v>
-      </c>
-      <c r="K75" s="15">
-        <f t="shared" si="24"/>
         <v>15</v>
       </c>
       <c r="L75" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M75" s="14" t="s">
         <v>314</v>
       </c>
       <c r="N75" s="14">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="O75" s="1">
         <f t="shared" si="25"/>
-        <v>5</v>
-      </c>
-      <c r="O75" s="1">
-        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="P75" s="16"/>
@@ -11747,11 +11747,11 @@
         <v>0</v>
       </c>
       <c r="S75" s="3">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="T75" s="1">
         <f t="shared" si="27"/>
-        <v>5</v>
-      </c>
-      <c r="T75" s="1">
-        <f t="shared" si="28"/>
         <v>6</v>
       </c>
     </row>
@@ -11772,41 +11772,41 @@
         <v>766</v>
       </c>
       <c r="F76" s="1">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="G76" s="1">
         <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="G76" s="1">
+      <c r="H76" s="1">
         <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="H76" s="1">
-        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="I76" s="7" t="s">
         <v>316</v>
       </c>
       <c r="J76" s="15">
+        <f t="shared" si="22"/>
+        <v>85</v>
+      </c>
+      <c r="K76" s="15">
         <f t="shared" si="23"/>
-        <v>85</v>
-      </c>
-      <c r="K76" s="15">
-        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="L76" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M76" s="14" t="s">
         <v>315</v>
       </c>
       <c r="N76" s="14">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="O76" s="1">
         <f t="shared" si="25"/>
-        <v>5</v>
-      </c>
-      <c r="O76" s="1">
-        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="P76" s="16"/>
@@ -11815,11 +11815,11 @@
         <v>0</v>
       </c>
       <c r="S76" s="3">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="T76" s="1">
         <f t="shared" si="27"/>
-        <v>3</v>
-      </c>
-      <c r="T76" s="1">
-        <f t="shared" si="28"/>
         <v>4</v>
       </c>
     </row>
@@ -11840,41 +11840,41 @@
         <v>767</v>
       </c>
       <c r="F77" s="1">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="G77" s="1">
         <f t="shared" si="20"/>
         <v>5</v>
       </c>
-      <c r="G77" s="1">
+      <c r="H77" s="1">
         <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="H77" s="1">
-        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="I77" s="7" t="s">
         <v>318</v>
       </c>
       <c r="J77" s="15">
+        <f t="shared" si="22"/>
+        <v>83</v>
+      </c>
+      <c r="K77" s="15">
         <f t="shared" si="23"/>
-        <v>83</v>
-      </c>
-      <c r="K77" s="15">
-        <f t="shared" si="24"/>
         <v>13</v>
       </c>
       <c r="L77" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M77" s="14" t="s">
         <v>317</v>
       </c>
       <c r="N77" s="14">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="O77" s="1">
         <f t="shared" si="25"/>
-        <v>7</v>
-      </c>
-      <c r="O77" s="1">
-        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="P77" s="16"/>
@@ -11883,11 +11883,11 @@
         <v>0</v>
       </c>
       <c r="S77" s="3">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="T77" s="1">
         <f t="shared" si="27"/>
-        <v>6</v>
-      </c>
-      <c r="T77" s="1">
-        <f t="shared" si="28"/>
         <v>7</v>
       </c>
     </row>
@@ -11908,41 +11908,41 @@
         <v>768</v>
       </c>
       <c r="F78" s="1">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="G78" s="1">
         <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="G78" s="1">
+      <c r="H78" s="1">
         <f t="shared" si="21"/>
         <v>4</v>
       </c>
-      <c r="H78" s="1">
+      <c r="I78" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="J78" s="15">
         <f t="shared" si="22"/>
-        <v>4</v>
-      </c>
-      <c r="I78" s="7" t="s">
-        <v>899</v>
-      </c>
-      <c r="J78" s="15">
+        <v>87</v>
+      </c>
+      <c r="K78" s="15">
         <f t="shared" si="23"/>
-        <v>88</v>
-      </c>
-      <c r="K78" s="15">
+        <v>15</v>
+      </c>
+      <c r="L78" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>Yes</v>
+      </c>
+      <c r="M78" s="14" t="s">
+        <v>910</v>
+      </c>
+      <c r="N78" s="14">
         <f t="shared" si="24"/>
-        <v>15</v>
-      </c>
-      <c r="L78" s="5" t="str">
-        <f t="shared" si="29"/>
-        <v>Yes</v>
-      </c>
-      <c r="M78" s="14" t="s">
-        <v>911</v>
-      </c>
-      <c r="N78" s="14">
+        <v>7</v>
+      </c>
+      <c r="O78" s="1">
         <f t="shared" si="25"/>
-        <v>7</v>
-      </c>
-      <c r="O78" s="1">
-        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="P78" s="16"/>
@@ -11951,11 +11951,11 @@
         <v>0</v>
       </c>
       <c r="S78" s="3">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="T78" s="1">
         <f t="shared" si="27"/>
-        <v>6</v>
-      </c>
-      <c r="T78" s="1">
-        <f t="shared" si="28"/>
         <v>7</v>
       </c>
     </row>
@@ -11976,41 +11976,41 @@
         <v>769</v>
       </c>
       <c r="F79" s="1">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="G79" s="1">
         <f t="shared" si="20"/>
         <v>6</v>
       </c>
-      <c r="G79" s="1">
+      <c r="H79" s="1">
         <f t="shared" si="21"/>
         <v>6</v>
       </c>
-      <c r="H79" s="1">
-        <f t="shared" si="22"/>
-        <v>6</v>
-      </c>
       <c r="I79" s="7" t="s">
         <v>877</v>
       </c>
       <c r="J79" s="15">
+        <f t="shared" si="22"/>
+        <v>67</v>
+      </c>
+      <c r="K79" s="15">
         <f t="shared" si="23"/>
-        <v>67</v>
-      </c>
-      <c r="K79" s="15">
-        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="L79" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M79" s="14" t="s">
         <v>323</v>
       </c>
       <c r="N79" s="14">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="O79" s="1">
         <f t="shared" si="25"/>
-        <v>8</v>
-      </c>
-      <c r="O79" s="1">
-        <f t="shared" si="26"/>
         <v>6</v>
       </c>
       <c r="P79" s="16"/>
@@ -12019,11 +12019,11 @@
         <v>0</v>
       </c>
       <c r="S79" s="3">
+        <f t="shared" si="26"/>
+        <v>7</v>
+      </c>
+      <c r="T79" s="1">
         <f t="shared" si="27"/>
-        <v>7</v>
-      </c>
-      <c r="T79" s="1">
-        <f t="shared" si="28"/>
         <v>8</v>
       </c>
     </row>
@@ -12044,41 +12044,41 @@
         <v>770</v>
       </c>
       <c r="F80" s="1">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="G80" s="1">
         <f t="shared" si="20"/>
         <v>5</v>
       </c>
-      <c r="G80" s="1">
+      <c r="H80" s="1">
         <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="H80" s="1">
-        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="I80" s="7" t="s">
         <v>261</v>
       </c>
       <c r="J80" s="15">
+        <f t="shared" si="22"/>
+        <v>83</v>
+      </c>
+      <c r="K80" s="15">
         <f t="shared" si="23"/>
-        <v>83</v>
-      </c>
-      <c r="K80" s="15">
-        <f t="shared" si="24"/>
         <v>16</v>
       </c>
       <c r="L80" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M80" s="14" t="s">
         <v>262</v>
       </c>
       <c r="N80" s="14">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="O80" s="1">
         <f t="shared" si="25"/>
-        <v>5</v>
-      </c>
-      <c r="O80" s="1">
-        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="P80" s="16"/>
@@ -12087,11 +12087,11 @@
         <v>0</v>
       </c>
       <c r="S80" s="3">
+        <f t="shared" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="T80" s="1">
         <f t="shared" si="27"/>
-        <v>9</v>
-      </c>
-      <c r="T80" s="1">
-        <f t="shared" si="28"/>
         <v>10</v>
       </c>
     </row>
@@ -12112,41 +12112,41 @@
         <v>771</v>
       </c>
       <c r="F81" s="1">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="G81" s="1">
         <f t="shared" si="20"/>
         <v>5</v>
       </c>
-      <c r="G81" s="1">
+      <c r="H81" s="1">
         <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="H81" s="1">
-        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="I81" s="7" t="s">
         <v>256</v>
       </c>
       <c r="J81" s="15">
+        <f t="shared" si="22"/>
+        <v>81</v>
+      </c>
+      <c r="K81" s="15">
         <f t="shared" si="23"/>
-        <v>81</v>
-      </c>
-      <c r="K81" s="15">
-        <f t="shared" si="24"/>
         <v>15</v>
       </c>
       <c r="L81" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M81" s="14" t="s">
         <v>255</v>
       </c>
       <c r="N81" s="14">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="O81" s="1">
         <f t="shared" si="25"/>
-        <v>8</v>
-      </c>
-      <c r="O81" s="1">
-        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="P81" s="16"/>
@@ -12155,11 +12155,11 @@
         <v>0</v>
       </c>
       <c r="S81" s="3">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="T81" s="1">
         <f t="shared" si="27"/>
-        <v>6</v>
-      </c>
-      <c r="T81" s="1">
-        <f t="shared" si="28"/>
         <v>7</v>
       </c>
     </row>
@@ -12180,41 +12180,41 @@
         <v>772</v>
       </c>
       <c r="F82" s="1">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="G82" s="1">
         <f t="shared" si="20"/>
         <v>5</v>
       </c>
-      <c r="G82" s="1">
+      <c r="H82" s="1">
         <f t="shared" si="21"/>
         <v>5</v>
       </c>
-      <c r="H82" s="1">
+      <c r="I82" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="J82" s="15">
         <f t="shared" si="22"/>
-        <v>5</v>
-      </c>
-      <c r="I82" s="7" t="s">
-        <v>900</v>
-      </c>
-      <c r="J82" s="15">
+        <v>84</v>
+      </c>
+      <c r="K82" s="15">
         <f t="shared" si="23"/>
-        <v>84</v>
-      </c>
-      <c r="K82" s="15">
-        <f t="shared" si="24"/>
         <v>15</v>
       </c>
       <c r="L82" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M82" s="14" t="s">
         <v>326</v>
       </c>
       <c r="N82" s="14">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="O82" s="1">
         <f t="shared" si="25"/>
-        <v>7</v>
-      </c>
-      <c r="O82" s="1">
-        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="P82" s="16"/>
@@ -12223,11 +12223,11 @@
         <v>0</v>
       </c>
       <c r="S82" s="3">
+        <f t="shared" si="26"/>
+        <v>10</v>
+      </c>
+      <c r="T82" s="1">
         <f t="shared" si="27"/>
-        <v>10</v>
-      </c>
-      <c r="T82" s="1">
-        <f t="shared" si="28"/>
         <v>11</v>
       </c>
     </row>
@@ -12248,41 +12248,41 @@
         <v>773</v>
       </c>
       <c r="F83" s="1">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="G83" s="1">
         <f t="shared" si="20"/>
         <v>5</v>
       </c>
-      <c r="G83" s="1">
+      <c r="H83" s="1">
         <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="H83" s="1">
-        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="I83" s="7" t="s">
         <v>321</v>
       </c>
       <c r="J83" s="15">
+        <f t="shared" si="22"/>
+        <v>70</v>
+      </c>
+      <c r="K83" s="15">
         <f t="shared" si="23"/>
-        <v>70</v>
-      </c>
-      <c r="K83" s="15">
-        <f t="shared" si="24"/>
         <v>15</v>
       </c>
       <c r="L83" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M83" s="14" t="s">
         <v>274</v>
       </c>
       <c r="N83" s="14">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="O83" s="1">
         <f t="shared" si="25"/>
-        <v>5</v>
-      </c>
-      <c r="O83" s="1">
-        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="P83" s="16"/>
@@ -12291,11 +12291,11 @@
         <v>0</v>
       </c>
       <c r="S83" s="3">
+        <f t="shared" si="26"/>
+        <v>8</v>
+      </c>
+      <c r="T83" s="1">
         <f t="shared" si="27"/>
-        <v>8</v>
-      </c>
-      <c r="T83" s="1">
-        <f t="shared" si="28"/>
         <v>9</v>
       </c>
     </row>
@@ -12316,41 +12316,41 @@
         <v>774</v>
       </c>
       <c r="F84" s="1">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="G84" s="1">
         <f t="shared" si="20"/>
         <v>5</v>
       </c>
-      <c r="G84" s="1">
+      <c r="H84" s="1">
         <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="H84" s="1">
-        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="I84" s="7" t="s">
         <v>312</v>
       </c>
       <c r="J84" s="15">
+        <f t="shared" si="22"/>
+        <v>80</v>
+      </c>
+      <c r="K84" s="15">
         <f t="shared" si="23"/>
-        <v>80</v>
-      </c>
-      <c r="K84" s="15">
-        <f t="shared" si="24"/>
         <v>16</v>
       </c>
       <c r="L84" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M84" s="14" t="s">
         <v>311</v>
       </c>
       <c r="N84" s="14">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="O84" s="1">
         <f t="shared" si="25"/>
-        <v>5</v>
-      </c>
-      <c r="O84" s="1">
-        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="P84" s="16"/>
@@ -12359,11 +12359,11 @@
         <v>0</v>
       </c>
       <c r="S84" s="3">
+        <f t="shared" si="26"/>
+        <v>8</v>
+      </c>
+      <c r="T84" s="1">
         <f t="shared" si="27"/>
-        <v>8</v>
-      </c>
-      <c r="T84" s="1">
-        <f t="shared" si="28"/>
         <v>9</v>
       </c>
     </row>
@@ -12384,41 +12384,41 @@
         <v>775</v>
       </c>
       <c r="F85" s="1">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="G85" s="1">
         <f t="shared" si="20"/>
         <v>5</v>
       </c>
-      <c r="G85" s="1">
+      <c r="H85" s="1">
         <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="H85" s="1">
-        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="I85" s="7" t="s">
         <v>241</v>
       </c>
       <c r="J85" s="15">
+        <f t="shared" si="22"/>
+        <v>79</v>
+      </c>
+      <c r="K85" s="15">
         <f t="shared" si="23"/>
-        <v>79</v>
-      </c>
-      <c r="K85" s="15">
-        <f t="shared" si="24"/>
         <v>13</v>
       </c>
       <c r="L85" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M85" s="14" t="s">
         <v>237</v>
       </c>
       <c r="N85" s="14">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="O85" s="1">
         <f t="shared" si="25"/>
-        <v>7</v>
-      </c>
-      <c r="O85" s="1">
-        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="P85" s="16"/>
@@ -12427,11 +12427,11 @@
         <v>0</v>
       </c>
       <c r="S85" s="3">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="T85" s="1">
         <f t="shared" si="27"/>
-        <v>6</v>
-      </c>
-      <c r="T85" s="1">
-        <f t="shared" si="28"/>
         <v>7</v>
       </c>
     </row>
@@ -12452,41 +12452,41 @@
         <v>776</v>
       </c>
       <c r="F86" s="1">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="G86" s="1">
         <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="G86" s="1">
+      <c r="H86" s="1">
         <f t="shared" si="21"/>
         <v>4</v>
       </c>
-      <c r="H86" s="1">
+      <c r="I86" s="7" t="s">
+        <v>900</v>
+      </c>
+      <c r="J86" s="15">
         <f t="shared" si="22"/>
-        <v>4</v>
-      </c>
-      <c r="I86" s="7" t="s">
-        <v>901</v>
-      </c>
-      <c r="J86" s="15">
+        <v>87</v>
+      </c>
+      <c r="K86" s="15">
         <f t="shared" si="23"/>
-        <v>87</v>
-      </c>
-      <c r="K86" s="15">
-        <f t="shared" si="24"/>
         <v>15</v>
       </c>
       <c r="L86" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M86" s="14" t="s">
         <v>240</v>
       </c>
       <c r="N86" s="14">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="O86" s="1">
         <f t="shared" si="25"/>
-        <v>5</v>
-      </c>
-      <c r="O86" s="1">
-        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="P86" s="16"/>
@@ -12495,11 +12495,11 @@
         <v>0</v>
       </c>
       <c r="S86" s="3">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="T86" s="1">
         <f t="shared" si="27"/>
-        <v>6</v>
-      </c>
-      <c r="T86" s="1">
-        <f t="shared" si="28"/>
         <v>7</v>
       </c>
     </row>
@@ -12520,41 +12520,41 @@
         <v>777</v>
       </c>
       <c r="F87" s="1">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="G87" s="1">
         <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="G87" s="1">
+      <c r="H87" s="1">
         <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="H87" s="1">
-        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="I87" s="7" t="s">
         <v>239</v>
       </c>
       <c r="J87" s="15">
+        <f t="shared" si="22"/>
+        <v>71</v>
+      </c>
+      <c r="K87" s="15">
         <f t="shared" si="23"/>
-        <v>71</v>
-      </c>
-      <c r="K87" s="15">
-        <f t="shared" si="24"/>
         <v>13</v>
       </c>
       <c r="L87" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M87" s="14" t="s">
         <v>238</v>
       </c>
       <c r="N87" s="14">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="O87" s="1">
         <f t="shared" si="25"/>
-        <v>5</v>
-      </c>
-      <c r="O87" s="1">
-        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="P87" s="16"/>
@@ -12563,11 +12563,11 @@
         <v>0</v>
       </c>
       <c r="S87" s="3">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="T87" s="1">
         <f t="shared" si="27"/>
-        <v>4</v>
-      </c>
-      <c r="T87" s="1">
-        <f t="shared" si="28"/>
         <v>5</v>
       </c>
     </row>
@@ -12588,41 +12588,41 @@
         <v>778</v>
       </c>
       <c r="F88" s="1">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="G88" s="1">
         <f t="shared" si="20"/>
         <v>5</v>
       </c>
-      <c r="G88" s="1">
+      <c r="H88" s="1">
         <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="H88" s="1">
-        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="I88" s="7" t="s">
         <v>339</v>
       </c>
       <c r="J88" s="15">
+        <f t="shared" si="22"/>
+        <v>84</v>
+      </c>
+      <c r="K88" s="15">
         <f t="shared" si="23"/>
-        <v>84</v>
-      </c>
-      <c r="K88" s="15">
-        <f t="shared" si="24"/>
         <v>16</v>
       </c>
       <c r="L88" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M88" s="14" t="s">
         <v>242</v>
       </c>
       <c r="N88" s="14">
+        <f t="shared" si="24"/>
+        <v>6</v>
+      </c>
+      <c r="O88" s="1">
         <f t="shared" si="25"/>
-        <v>6</v>
-      </c>
-      <c r="O88" s="1">
-        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="P88" s="16"/>
@@ -12631,11 +12631,11 @@
         <v>0</v>
       </c>
       <c r="S88" s="3">
+        <f t="shared" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="T88" s="1">
         <f t="shared" si="27"/>
-        <v>9</v>
-      </c>
-      <c r="T88" s="1">
-        <f t="shared" si="28"/>
         <v>10</v>
       </c>
     </row>
@@ -12656,41 +12656,41 @@
         <v>779</v>
       </c>
       <c r="F89" s="1">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="G89" s="1">
         <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="G89" s="1">
+      <c r="H89" s="1">
         <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="H89" s="1">
-        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="I89" s="7" t="s">
         <v>244</v>
       </c>
       <c r="J89" s="15">
+        <f t="shared" si="22"/>
+        <v>80</v>
+      </c>
+      <c r="K89" s="15">
         <f t="shared" si="23"/>
-        <v>80</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="24"/>
         <v>16</v>
       </c>
       <c r="L89" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M89" s="14" t="s">
         <v>243</v>
       </c>
       <c r="N89" s="14">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="O89" s="1">
         <f t="shared" si="25"/>
-        <v>4</v>
-      </c>
-      <c r="O89" s="1">
-        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="P89" s="16"/>
@@ -12699,11 +12699,11 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <f t="shared" si="26"/>
+        <v>11</v>
+      </c>
+      <c r="T89" s="1">
         <f t="shared" si="27"/>
-        <v>11</v>
-      </c>
-      <c r="T89" s="1">
-        <f t="shared" si="28"/>
         <v>12</v>
       </c>
     </row>
@@ -12724,41 +12724,41 @@
         <v>780</v>
       </c>
       <c r="F90" s="1">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="G90" s="1">
         <f t="shared" si="20"/>
         <v>5</v>
       </c>
-      <c r="G90" s="1">
+      <c r="H90" s="1">
         <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="H90" s="1">
-        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="I90" s="7" t="s">
         <v>390</v>
       </c>
       <c r="J90" s="15">
+        <f t="shared" si="22"/>
+        <v>87</v>
+      </c>
+      <c r="K90" s="15">
         <f t="shared" si="23"/>
-        <v>87</v>
-      </c>
-      <c r="K90" s="15">
-        <f t="shared" si="24"/>
         <v>15</v>
       </c>
       <c r="L90" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M90" s="14" t="s">
         <v>259</v>
       </c>
       <c r="N90" s="14">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="O90" s="1">
         <f t="shared" si="25"/>
-        <v>5</v>
-      </c>
-      <c r="O90" s="1">
-        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="P90" s="16"/>
@@ -12767,11 +12767,11 @@
         <v>0</v>
       </c>
       <c r="S90" s="3">
+        <f t="shared" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="T90" s="1">
         <f t="shared" si="27"/>
-        <v>9</v>
-      </c>
-      <c r="T90" s="1">
-        <f t="shared" si="28"/>
         <v>10</v>
       </c>
     </row>
@@ -12792,41 +12792,41 @@
         <v>781</v>
       </c>
       <c r="F91" s="1">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="G91" s="1">
         <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="G91" s="1">
+      <c r="H91" s="1">
         <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="H91" s="1">
-        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="I91" s="7" t="s">
         <v>878</v>
       </c>
       <c r="J91" s="15">
+        <f t="shared" si="22"/>
+        <v>69</v>
+      </c>
+      <c r="K91" s="15">
         <f t="shared" si="23"/>
-        <v>69</v>
-      </c>
-      <c r="K91" s="15">
-        <f t="shared" si="24"/>
         <v>13</v>
       </c>
       <c r="L91" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M91" s="14" t="s">
         <v>245</v>
       </c>
       <c r="N91" s="14">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="O91" s="1">
         <f t="shared" si="25"/>
-        <v>4</v>
-      </c>
-      <c r="O91" s="1">
-        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="P91" s="16"/>
@@ -12835,11 +12835,11 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="T91" s="1">
         <f t="shared" si="27"/>
-        <v>4</v>
-      </c>
-      <c r="T91" s="1">
-        <f t="shared" si="28"/>
         <v>5</v>
       </c>
     </row>
@@ -12860,41 +12860,41 @@
         <v>782</v>
       </c>
       <c r="F92" s="1">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="G92" s="1">
         <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="G92" s="1">
+      <c r="H92" s="1">
         <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="H92" s="1">
-        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="I92" s="7" t="s">
         <v>253</v>
       </c>
       <c r="J92" s="15">
+        <f t="shared" si="22"/>
+        <v>77</v>
+      </c>
+      <c r="K92" s="15">
         <f t="shared" si="23"/>
-        <v>77</v>
-      </c>
-      <c r="K92" s="15">
-        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="L92" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M92" s="14" t="s">
         <v>254</v>
       </c>
       <c r="N92" s="14">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="O92" s="1">
         <f t="shared" si="25"/>
-        <v>4</v>
-      </c>
-      <c r="O92" s="1">
-        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="P92" s="16"/>
@@ -12903,11 +12903,11 @@
         <v>0</v>
       </c>
       <c r="S92" s="3">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="T92" s="1">
         <f t="shared" si="27"/>
-        <v>4</v>
-      </c>
-      <c r="T92" s="1">
-        <f t="shared" si="28"/>
         <v>5</v>
       </c>
     </row>
@@ -12928,41 +12928,41 @@
         <v>783</v>
       </c>
       <c r="F93" s="1">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="G93" s="1">
         <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="G93" s="1">
+      <c r="H93" s="1">
         <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="H93" s="1">
-        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="I93" s="7" t="s">
         <v>246</v>
       </c>
       <c r="J93" s="15">
+        <f t="shared" si="22"/>
+        <v>86</v>
+      </c>
+      <c r="K93" s="15">
         <f t="shared" si="23"/>
-        <v>86</v>
-      </c>
-      <c r="K93" s="15">
-        <f t="shared" si="24"/>
         <v>16</v>
       </c>
       <c r="L93" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M93" s="14" t="s">
         <v>235</v>
       </c>
       <c r="N93" s="14">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="O93" s="1">
         <f t="shared" si="25"/>
-        <v>5</v>
-      </c>
-      <c r="O93" s="1">
-        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="P93" s="16"/>
@@ -12971,11 +12971,11 @@
         <v>0</v>
       </c>
       <c r="S93" s="3">
+        <f t="shared" si="26"/>
+        <v>8</v>
+      </c>
+      <c r="T93" s="1">
         <f t="shared" si="27"/>
-        <v>8</v>
-      </c>
-      <c r="T93" s="1">
-        <f t="shared" si="28"/>
         <v>9</v>
       </c>
     </row>
@@ -12996,41 +12996,41 @@
         <v>784</v>
       </c>
       <c r="F94" s="1">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="G94" s="1">
         <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="G94" s="1">
+      <c r="H94" s="1">
         <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="H94" s="1">
-        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="I94" s="7" t="s">
         <v>290</v>
       </c>
       <c r="J94" s="15">
+        <f t="shared" si="22"/>
+        <v>78</v>
+      </c>
+      <c r="K94" s="15">
         <f t="shared" si="23"/>
-        <v>78</v>
-      </c>
-      <c r="K94" s="15">
-        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="L94" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M94" s="14" t="s">
         <v>260</v>
       </c>
       <c r="N94" s="14">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="O94" s="1">
         <f t="shared" si="25"/>
-        <v>7</v>
-      </c>
-      <c r="O94" s="1">
-        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="P94" s="16"/>
@@ -13039,11 +13039,11 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <f t="shared" si="26"/>
+        <v>8</v>
+      </c>
+      <c r="T94" s="1">
         <f t="shared" si="27"/>
-        <v>8</v>
-      </c>
-      <c r="T94" s="1">
-        <f t="shared" si="28"/>
         <v>9</v>
       </c>
     </row>
@@ -13064,41 +13064,41 @@
         <v>785</v>
       </c>
       <c r="F95" s="1">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="G95" s="1">
         <f t="shared" si="20"/>
         <v>5</v>
       </c>
-      <c r="G95" s="1">
+      <c r="H95" s="1">
         <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="H95" s="1">
-        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="I95" s="7" t="s">
         <v>305</v>
       </c>
       <c r="J95" s="15">
+        <f t="shared" si="22"/>
+        <v>84</v>
+      </c>
+      <c r="K95" s="15">
         <f t="shared" si="23"/>
-        <v>84</v>
-      </c>
-      <c r="K95" s="15">
-        <f t="shared" si="24"/>
         <v>15</v>
       </c>
       <c r="L95" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M95" s="14" t="s">
         <v>306</v>
       </c>
       <c r="N95" s="14">
+        <f t="shared" si="24"/>
+        <v>6</v>
+      </c>
+      <c r="O95" s="1">
         <f t="shared" si="25"/>
-        <v>6</v>
-      </c>
-      <c r="O95" s="1">
-        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="P95" s="16"/>
@@ -13107,11 +13107,11 @@
         <v>0</v>
       </c>
       <c r="S95" s="3">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="T95" s="1">
         <f t="shared" si="27"/>
-        <v>5</v>
-      </c>
-      <c r="T95" s="1">
-        <f t="shared" si="28"/>
         <v>6</v>
       </c>
     </row>
@@ -13132,41 +13132,41 @@
         <v>786</v>
       </c>
       <c r="F96" s="1">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="G96" s="1">
         <f t="shared" si="20"/>
         <v>5</v>
       </c>
-      <c r="G96" s="1">
+      <c r="H96" s="1">
         <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="H96" s="1">
-        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="I96" s="7" t="s">
         <v>402</v>
       </c>
       <c r="J96" s="15">
+        <f t="shared" si="22"/>
+        <v>85</v>
+      </c>
+      <c r="K96" s="15">
         <f t="shared" si="23"/>
-        <v>85</v>
-      </c>
-      <c r="K96" s="15">
-        <f t="shared" si="24"/>
         <v>16</v>
       </c>
       <c r="L96" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M96" s="14" t="s">
         <v>307</v>
       </c>
       <c r="N96" s="14">
+        <f t="shared" si="24"/>
+        <v>6</v>
+      </c>
+      <c r="O96" s="1">
         <f t="shared" si="25"/>
-        <v>6</v>
-      </c>
-      <c r="O96" s="1">
-        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="P96" s="16"/>
@@ -13175,11 +13175,11 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <f t="shared" si="26"/>
+        <v>7</v>
+      </c>
+      <c r="T96" s="1">
         <f t="shared" si="27"/>
-        <v>7</v>
-      </c>
-      <c r="T96" s="1">
-        <f t="shared" si="28"/>
         <v>8</v>
       </c>
     </row>
@@ -13200,41 +13200,41 @@
         <v>787</v>
       </c>
       <c r="F97" s="1">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="G97" s="1">
         <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="G97" s="1">
+      <c r="H97" s="1">
         <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="H97" s="1">
-        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="I97" s="7" t="s">
         <v>879</v>
       </c>
       <c r="J97" s="15">
+        <f t="shared" si="22"/>
+        <v>83</v>
+      </c>
+      <c r="K97" s="15">
         <f t="shared" si="23"/>
-        <v>83</v>
-      </c>
-      <c r="K97" s="15">
-        <f t="shared" si="24"/>
         <v>15</v>
       </c>
       <c r="L97" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M97" s="14" t="s">
         <v>308</v>
       </c>
       <c r="N97" s="14">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="O97" s="1">
         <f t="shared" si="25"/>
-        <v>5</v>
-      </c>
-      <c r="O97" s="1">
-        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="P97" s="16"/>
@@ -13243,11 +13243,11 @@
         <v>0</v>
       </c>
       <c r="S97" s="3">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="T97" s="1">
         <f t="shared" si="27"/>
-        <v>5</v>
-      </c>
-      <c r="T97" s="1">
-        <f t="shared" si="28"/>
         <v>6</v>
       </c>
     </row>
@@ -13268,41 +13268,41 @@
         <v>788</v>
       </c>
       <c r="F98" s="1">
-        <f t="shared" ref="F98:F129" si="30">LEN(C98)</f>
+        <f t="shared" ref="F98:F129" si="29">LEN(C98)</f>
         <v>5</v>
       </c>
       <c r="G98" s="1">
-        <f t="shared" ref="G98:G129" si="31">LEN(D98)</f>
+        <f t="shared" ref="G98:G129" si="30">LEN(D98)</f>
         <v>5</v>
       </c>
       <c r="H98" s="1">
-        <f t="shared" ref="H98:H129" si="32">LEN(E98)</f>
+        <f t="shared" ref="H98:H129" si="31">LEN(E98)</f>
         <v>5</v>
       </c>
       <c r="I98" s="7" t="s">
         <v>880</v>
       </c>
       <c r="J98" s="15">
-        <f t="shared" ref="J98:J129" si="33">LEN(I98)</f>
+        <f t="shared" ref="J98:J129" si="32">LEN(I98)</f>
         <v>75</v>
       </c>
       <c r="K98" s="15">
-        <f t="shared" ref="K98:K129" si="34">IF(ISBLANK(I98),0,LEN(TRIM(I98))-LEN(SUBSTITUTE(I98," ",""))+1)</f>
+        <f t="shared" ref="K98:K129" si="33">IF(ISBLANK(I98),0,LEN(TRIM(I98))-LEN(SUBSTITUTE(I98," ",""))+1)</f>
         <v>13</v>
       </c>
       <c r="L98" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M98" s="14" t="s">
         <v>309</v>
       </c>
       <c r="N98" s="14">
-        <f t="shared" ref="N98:N129" si="35">LEN(M98)</f>
+        <f t="shared" ref="N98:N129" si="34">LEN(M98)</f>
         <v>4</v>
       </c>
       <c r="O98" s="1">
-        <f t="shared" ref="O98:O129" si="36">LEN(C98)</f>
+        <f t="shared" ref="O98:O129" si="35">LEN(C98)</f>
         <v>5</v>
       </c>
       <c r="P98" s="16"/>
@@ -13311,11 +13311,11 @@
         <v>0</v>
       </c>
       <c r="S98" s="3">
-        <f t="shared" ref="S98:S129" si="37">IF(ISBLANK(LEFT(I98,FIND(M98,I98)-1)),0,LEN(TRIM(LEFT(I98,FIND(M98,I98)-1)))-LEN(SUBSTITUTE(LEFT(I98,FIND(M98,I98)-1)," ",""))+1)+1</f>
+        <f t="shared" ref="S98:S129" si="36">IF(ISBLANK(LEFT(I98,FIND(M98,I98)-1)),0,LEN(TRIM(LEFT(I98,FIND(M98,I98)-1)))-LEN(SUBSTITUTE(LEFT(I98,FIND(M98,I98)-1)," ",""))+1)+1</f>
         <v>10</v>
       </c>
       <c r="T98" s="1">
-        <f t="shared" ref="T98:T129" si="38">S98+1</f>
+        <f t="shared" ref="T98:T129" si="37">S98+1</f>
         <v>11</v>
       </c>
     </row>
@@ -13336,41 +13336,41 @@
         <v>789</v>
       </c>
       <c r="F99" s="1">
+        <f t="shared" si="29"/>
+        <v>6</v>
+      </c>
+      <c r="G99" s="1">
         <f t="shared" si="30"/>
         <v>6</v>
       </c>
-      <c r="G99" s="1">
+      <c r="H99" s="1">
         <f t="shared" si="31"/>
         <v>6</v>
       </c>
-      <c r="H99" s="1">
-        <f t="shared" si="32"/>
-        <v>6</v>
-      </c>
       <c r="I99" s="7" t="s">
         <v>372</v>
       </c>
       <c r="J99" s="15">
+        <f t="shared" si="32"/>
+        <v>80</v>
+      </c>
+      <c r="K99" s="15">
         <f t="shared" si="33"/>
-        <v>80</v>
-      </c>
-      <c r="K99" s="15">
-        <f t="shared" si="34"/>
         <v>13</v>
       </c>
       <c r="L99" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M99" s="14" t="s">
         <v>310</v>
       </c>
       <c r="N99" s="14">
+        <f t="shared" si="34"/>
+        <v>5</v>
+      </c>
+      <c r="O99" s="1">
         <f t="shared" si="35"/>
-        <v>5</v>
-      </c>
-      <c r="O99" s="1">
-        <f t="shared" si="36"/>
         <v>6</v>
       </c>
       <c r="P99" s="16"/>
@@ -13379,11 +13379,11 @@
         <v>0</v>
       </c>
       <c r="S99" s="3">
+        <f t="shared" si="36"/>
+        <v>9</v>
+      </c>
+      <c r="T99" s="1">
         <f t="shared" si="37"/>
-        <v>9</v>
-      </c>
-      <c r="T99" s="1">
-        <f t="shared" si="38"/>
         <v>10</v>
       </c>
     </row>
@@ -13404,41 +13404,41 @@
         <v>790</v>
       </c>
       <c r="F100" s="1">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+      <c r="G100" s="1">
         <f t="shared" si="30"/>
         <v>4</v>
       </c>
-      <c r="G100" s="1">
+      <c r="H100" s="1">
         <f t="shared" si="31"/>
-        <v>4</v>
-      </c>
-      <c r="H100" s="1">
-        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="I100" s="7" t="s">
         <v>257</v>
       </c>
       <c r="J100" s="15">
+        <f t="shared" si="32"/>
+        <v>82</v>
+      </c>
+      <c r="K100" s="15">
         <f t="shared" si="33"/>
-        <v>82</v>
-      </c>
-      <c r="K100" s="15">
-        <f t="shared" si="34"/>
         <v>17</v>
       </c>
       <c r="L100" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M100" s="14" t="s">
         <v>258</v>
       </c>
       <c r="N100" s="14">
+        <f t="shared" si="34"/>
+        <v>4</v>
+      </c>
+      <c r="O100" s="1">
         <f t="shared" si="35"/>
-        <v>4</v>
-      </c>
-      <c r="O100" s="1">
-        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="P100" s="16"/>
@@ -13447,11 +13447,11 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <f t="shared" si="36"/>
+        <v>3</v>
+      </c>
+      <c r="T100" s="1">
         <f t="shared" si="37"/>
-        <v>3</v>
-      </c>
-      <c r="T100" s="1">
-        <f t="shared" si="38"/>
         <v>4</v>
       </c>
     </row>
@@ -13472,41 +13472,41 @@
         <v>791</v>
       </c>
       <c r="F101" s="1">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="G101" s="1">
         <f t="shared" si="30"/>
         <v>5</v>
       </c>
-      <c r="G101" s="1">
+      <c r="H101" s="1">
         <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="H101" s="1">
-        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="I101" s="7" t="s">
         <v>397</v>
       </c>
       <c r="J101" s="15">
+        <f t="shared" si="32"/>
+        <v>71</v>
+      </c>
+      <c r="K101" s="15">
         <f t="shared" si="33"/>
-        <v>71</v>
-      </c>
-      <c r="K101" s="15">
-        <f t="shared" si="34"/>
         <v>13</v>
       </c>
       <c r="L101" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M101" s="14" t="s">
         <v>391</v>
       </c>
       <c r="N101" s="14">
+        <f t="shared" si="34"/>
+        <v>8</v>
+      </c>
+      <c r="O101" s="1">
         <f t="shared" si="35"/>
-        <v>8</v>
-      </c>
-      <c r="O101" s="1">
-        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="P101" s="16"/>
@@ -13515,11 +13515,11 @@
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <f t="shared" si="36"/>
+        <v>6</v>
+      </c>
+      <c r="T101" s="1">
         <f t="shared" si="37"/>
-        <v>6</v>
-      </c>
-      <c r="T101" s="1">
-        <f t="shared" si="38"/>
         <v>7</v>
       </c>
     </row>
@@ -13540,41 +13540,41 @@
         <v>792</v>
       </c>
       <c r="F102" s="1">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="G102" s="1">
         <f t="shared" si="30"/>
         <v>5</v>
       </c>
-      <c r="G102" s="1">
+      <c r="H102" s="1">
         <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="H102" s="1">
-        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="I102" s="7" t="s">
         <v>881</v>
       </c>
       <c r="J102" s="15">
+        <f t="shared" si="32"/>
+        <v>84</v>
+      </c>
+      <c r="K102" s="15">
         <f t="shared" si="33"/>
-        <v>84</v>
-      </c>
-      <c r="K102" s="15">
-        <f t="shared" si="34"/>
         <v>13</v>
       </c>
       <c r="L102" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M102" s="14" t="s">
         <v>329</v>
       </c>
       <c r="N102" s="14">
+        <f t="shared" si="34"/>
+        <v>7</v>
+      </c>
+      <c r="O102" s="1">
         <f t="shared" si="35"/>
-        <v>7</v>
-      </c>
-      <c r="O102" s="1">
-        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="P102" s="16"/>
@@ -13583,11 +13583,11 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+      <c r="T102" s="1">
         <f t="shared" si="37"/>
-        <v>4</v>
-      </c>
-      <c r="T102" s="1">
-        <f t="shared" si="38"/>
         <v>5</v>
       </c>
     </row>
@@ -13608,41 +13608,41 @@
         <v>793</v>
       </c>
       <c r="F103" s="1">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="G103" s="1">
         <f t="shared" si="30"/>
         <v>5</v>
       </c>
-      <c r="G103" s="1">
+      <c r="H103" s="1">
         <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="H103" s="1">
-        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="I103" s="18" t="s">
         <v>396</v>
       </c>
       <c r="J103" s="12">
+        <f t="shared" si="32"/>
+        <v>75</v>
+      </c>
+      <c r="K103" s="12">
         <f t="shared" si="33"/>
-        <v>75</v>
-      </c>
-      <c r="K103" s="12">
-        <f t="shared" si="34"/>
         <v>12</v>
       </c>
       <c r="L103" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M103" s="11" t="s">
         <v>395</v>
       </c>
       <c r="N103" s="11">
+        <f t="shared" si="34"/>
+        <v>7</v>
+      </c>
+      <c r="O103" s="1">
         <f t="shared" si="35"/>
-        <v>7</v>
-      </c>
-      <c r="O103" s="1">
-        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="P103" s="13"/>
@@ -13651,11 +13651,11 @@
         <v>0</v>
       </c>
       <c r="S103" s="3">
+        <f t="shared" si="36"/>
+        <v>7</v>
+      </c>
+      <c r="T103" s="1">
         <f t="shared" si="37"/>
-        <v>7</v>
-      </c>
-      <c r="T103" s="1">
-        <f t="shared" si="38"/>
         <v>8</v>
       </c>
     </row>
@@ -13676,41 +13676,41 @@
         <v>794</v>
       </c>
       <c r="F104" s="1">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+      <c r="G104" s="1">
         <f t="shared" si="30"/>
         <v>4</v>
       </c>
-      <c r="G104" s="1">
+      <c r="H104" s="1">
         <f t="shared" si="31"/>
-        <v>4</v>
-      </c>
-      <c r="H104" s="1">
-        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="I104" s="18" t="s">
         <v>681</v>
       </c>
       <c r="J104" s="12">
+        <f t="shared" si="32"/>
+        <v>81</v>
+      </c>
+      <c r="K104" s="12">
         <f t="shared" si="33"/>
-        <v>81</v>
-      </c>
-      <c r="K104" s="12">
-        <f t="shared" si="34"/>
         <v>14</v>
       </c>
       <c r="L104" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M104" s="11" t="s">
         <v>595</v>
       </c>
       <c r="N104" s="11">
+        <f t="shared" si="34"/>
+        <v>4</v>
+      </c>
+      <c r="O104" s="1">
         <f t="shared" si="35"/>
-        <v>4</v>
-      </c>
-      <c r="O104" s="1">
-        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="P104" s="13"/>
@@ -13719,11 +13719,11 @@
         <v>0</v>
       </c>
       <c r="S104" s="3">
+        <f t="shared" si="36"/>
+        <v>7</v>
+      </c>
+      <c r="T104" s="1">
         <f t="shared" si="37"/>
-        <v>7</v>
-      </c>
-      <c r="T104" s="1">
-        <f t="shared" si="38"/>
         <v>8</v>
       </c>
     </row>
@@ -13744,41 +13744,41 @@
         <v>797</v>
       </c>
       <c r="F105" s="1">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+      <c r="G105" s="1">
         <f t="shared" si="30"/>
         <v>4</v>
       </c>
-      <c r="G105" s="1">
+      <c r="H105" s="1">
         <f t="shared" si="31"/>
-        <v>4</v>
-      </c>
-      <c r="H105" s="1">
-        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="I105" s="18" t="s">
         <v>610</v>
       </c>
       <c r="J105" s="12">
+        <f t="shared" si="32"/>
+        <v>84</v>
+      </c>
+      <c r="K105" s="12">
         <f t="shared" si="33"/>
-        <v>84</v>
-      </c>
-      <c r="K105" s="12">
-        <f t="shared" si="34"/>
         <v>17</v>
       </c>
       <c r="L105" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M105" s="11" t="s">
         <v>609</v>
       </c>
       <c r="N105" s="11">
+        <f t="shared" si="34"/>
+        <v>4</v>
+      </c>
+      <c r="O105" s="1">
         <f t="shared" si="35"/>
-        <v>4</v>
-      </c>
-      <c r="O105" s="1">
-        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="P105" s="13"/>
@@ -13787,11 +13787,11 @@
         <v>0</v>
       </c>
       <c r="S105" s="3">
+        <f t="shared" si="36"/>
+        <v>10</v>
+      </c>
+      <c r="T105" s="1">
         <f t="shared" si="37"/>
-        <v>10</v>
-      </c>
-      <c r="T105" s="1">
-        <f t="shared" si="38"/>
         <v>11</v>
       </c>
     </row>
@@ -13812,41 +13812,41 @@
         <v>800</v>
       </c>
       <c r="F106" s="1">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+      <c r="G106" s="1">
         <f t="shared" si="30"/>
         <v>4</v>
       </c>
-      <c r="G106" s="1">
+      <c r="H106" s="1">
         <f t="shared" si="31"/>
-        <v>4</v>
-      </c>
-      <c r="H106" s="1">
-        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="I106" s="18" t="s">
         <v>689</v>
       </c>
       <c r="J106" s="12">
+        <f t="shared" si="32"/>
+        <v>62</v>
+      </c>
+      <c r="K106" s="12">
         <f t="shared" si="33"/>
-        <v>62</v>
-      </c>
-      <c r="K106" s="12">
-        <f t="shared" si="34"/>
         <v>11</v>
       </c>
       <c r="L106" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M106" s="11" t="s">
         <v>322</v>
       </c>
       <c r="N106" s="11">
+        <f t="shared" si="34"/>
+        <v>5</v>
+      </c>
+      <c r="O106" s="1">
         <f t="shared" si="35"/>
-        <v>5</v>
-      </c>
-      <c r="O106" s="1">
-        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="P106" s="13"/>
@@ -13855,11 +13855,11 @@
         <v>0</v>
       </c>
       <c r="S106" s="3">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+      <c r="T106" s="1">
         <f t="shared" si="37"/>
-        <v>5</v>
-      </c>
-      <c r="T106" s="1">
-        <f t="shared" si="38"/>
         <v>6</v>
       </c>
     </row>
@@ -13880,41 +13880,41 @@
         <v>805</v>
       </c>
       <c r="F107" s="1">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+      <c r="G107" s="1">
         <f t="shared" si="30"/>
         <v>4</v>
       </c>
-      <c r="G107" s="1">
+      <c r="H107" s="1">
         <f t="shared" si="31"/>
-        <v>4</v>
-      </c>
-      <c r="H107" s="1">
-        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="I107" s="18" t="s">
         <v>648</v>
       </c>
       <c r="J107" s="12">
+        <f t="shared" si="32"/>
+        <v>64</v>
+      </c>
+      <c r="K107" s="12">
         <f t="shared" si="33"/>
-        <v>64</v>
-      </c>
-      <c r="K107" s="12">
-        <f t="shared" si="34"/>
         <v>12</v>
       </c>
       <c r="L107" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M107" s="11" t="s">
         <v>620</v>
       </c>
       <c r="N107" s="11">
+        <f t="shared" si="34"/>
+        <v>8</v>
+      </c>
+      <c r="O107" s="1">
         <f t="shared" si="35"/>
-        <v>8</v>
-      </c>
-      <c r="O107" s="1">
-        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="P107" s="13"/>
@@ -13923,11 +13923,11 @@
         <v>0</v>
       </c>
       <c r="S107" s="3">
+        <f t="shared" si="36"/>
+        <v>6</v>
+      </c>
+      <c r="T107" s="1">
         <f t="shared" si="37"/>
-        <v>6</v>
-      </c>
-      <c r="T107" s="1">
-        <f t="shared" si="38"/>
         <v>7</v>
       </c>
     </row>
@@ -13948,41 +13948,41 @@
         <v>806</v>
       </c>
       <c r="F108" s="1">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+      <c r="G108" s="1">
         <f t="shared" si="30"/>
         <v>4</v>
       </c>
-      <c r="G108" s="1">
+      <c r="H108" s="1">
         <f t="shared" si="31"/>
-        <v>4</v>
-      </c>
-      <c r="H108" s="1">
-        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="I108" s="16" t="s">
         <v>890</v>
       </c>
       <c r="J108" s="12">
+        <f t="shared" si="32"/>
+        <v>82</v>
+      </c>
+      <c r="K108" s="12">
         <f t="shared" si="33"/>
-        <v>82</v>
-      </c>
-      <c r="K108" s="12">
-        <f t="shared" si="34"/>
         <v>16</v>
       </c>
       <c r="L108" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M108" s="11" t="s">
         <v>611</v>
       </c>
       <c r="N108" s="11">
+        <f t="shared" si="34"/>
+        <v>5</v>
+      </c>
+      <c r="O108" s="1">
         <f t="shared" si="35"/>
-        <v>5</v>
-      </c>
-      <c r="O108" s="1">
-        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="P108" s="13"/>
@@ -13991,11 +13991,11 @@
         <v>0</v>
       </c>
       <c r="S108" s="3">
+        <f t="shared" si="36"/>
+        <v>7</v>
+      </c>
+      <c r="T108" s="1">
         <f t="shared" si="37"/>
-        <v>7</v>
-      </c>
-      <c r="T108" s="1">
-        <f t="shared" si="38"/>
         <v>8</v>
       </c>
     </row>
@@ -14016,41 +14016,41 @@
         <v>808</v>
       </c>
       <c r="F109" s="1">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+      <c r="G109" s="1">
         <f t="shared" si="30"/>
         <v>4</v>
       </c>
-      <c r="G109" s="1">
+      <c r="H109" s="1">
         <f t="shared" si="31"/>
-        <v>4</v>
-      </c>
-      <c r="H109" s="1">
-        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="I109" s="18" t="s">
         <v>623</v>
       </c>
       <c r="J109" s="12">
+        <f t="shared" si="32"/>
+        <v>79</v>
+      </c>
+      <c r="K109" s="12">
         <f t="shared" si="33"/>
-        <v>79</v>
-      </c>
-      <c r="K109" s="12">
-        <f t="shared" si="34"/>
         <v>15</v>
       </c>
       <c r="L109" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M109" s="11" t="s">
         <v>624</v>
       </c>
       <c r="N109" s="11">
+        <f t="shared" si="34"/>
+        <v>7</v>
+      </c>
+      <c r="O109" s="1">
         <f t="shared" si="35"/>
-        <v>7</v>
-      </c>
-      <c r="O109" s="1">
-        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="P109" s="13"/>
@@ -14059,11 +14059,11 @@
         <v>0</v>
       </c>
       <c r="S109" s="3">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+      <c r="T109" s="1">
         <f t="shared" si="37"/>
-        <v>5</v>
-      </c>
-      <c r="T109" s="1">
-        <f t="shared" si="38"/>
         <v>6</v>
       </c>
     </row>
@@ -14084,41 +14084,41 @@
         <v>809</v>
       </c>
       <c r="F110" s="1">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+      <c r="G110" s="1">
         <f t="shared" si="30"/>
         <v>4</v>
       </c>
-      <c r="G110" s="1">
+      <c r="H110" s="1">
         <f t="shared" si="31"/>
-        <v>4</v>
-      </c>
-      <c r="H110" s="1">
-        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="I110" s="18" t="s">
         <v>625</v>
       </c>
       <c r="J110" s="12">
+        <f t="shared" si="32"/>
+        <v>86</v>
+      </c>
+      <c r="K110" s="12">
         <f t="shared" si="33"/>
-        <v>86</v>
-      </c>
-      <c r="K110" s="12">
-        <f t="shared" si="34"/>
         <v>15</v>
       </c>
       <c r="L110" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M110" s="11" t="s">
         <v>259</v>
       </c>
       <c r="N110" s="11">
+        <f t="shared" si="34"/>
+        <v>5</v>
+      </c>
+      <c r="O110" s="1">
         <f t="shared" si="35"/>
-        <v>5</v>
-      </c>
-      <c r="O110" s="1">
-        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="P110" s="13"/>
@@ -14127,11 +14127,11 @@
         <v>0</v>
       </c>
       <c r="S110" s="3">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+      <c r="T110" s="1">
         <f t="shared" si="37"/>
-        <v>5</v>
-      </c>
-      <c r="T110" s="1">
-        <f t="shared" si="38"/>
         <v>6</v>
       </c>
     </row>
@@ -14152,41 +14152,41 @@
         <v>810</v>
       </c>
       <c r="F111" s="1">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+      <c r="G111" s="1">
         <f t="shared" si="30"/>
         <v>4</v>
       </c>
-      <c r="G111" s="1">
+      <c r="H111" s="1">
         <f t="shared" si="31"/>
-        <v>4</v>
-      </c>
-      <c r="H111" s="1">
-        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="I111" s="18" t="s">
         <v>626</v>
       </c>
       <c r="J111" s="12">
+        <f t="shared" si="32"/>
+        <v>68</v>
+      </c>
+      <c r="K111" s="12">
         <f t="shared" si="33"/>
-        <v>68</v>
-      </c>
-      <c r="K111" s="12">
-        <f t="shared" si="34"/>
         <v>13</v>
       </c>
       <c r="L111" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M111" s="11" t="s">
         <v>627</v>
       </c>
       <c r="N111" s="11">
+        <f t="shared" si="34"/>
+        <v>4</v>
+      </c>
+      <c r="O111" s="1">
         <f t="shared" si="35"/>
-        <v>4</v>
-      </c>
-      <c r="O111" s="1">
-        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="P111" s="13"/>
@@ -14195,11 +14195,11 @@
         <v>0</v>
       </c>
       <c r="S111" s="3">
+        <f t="shared" si="36"/>
+        <v>6</v>
+      </c>
+      <c r="T111" s="1">
         <f t="shared" si="37"/>
-        <v>6</v>
-      </c>
-      <c r="T111" s="1">
-        <f t="shared" si="38"/>
         <v>7</v>
       </c>
     </row>
@@ -14220,41 +14220,41 @@
         <v>811</v>
       </c>
       <c r="F112" s="1">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+      <c r="G112" s="1">
         <f t="shared" si="30"/>
         <v>4</v>
       </c>
-      <c r="G112" s="1">
+      <c r="H112" s="1">
         <f t="shared" si="31"/>
-        <v>4</v>
-      </c>
-      <c r="H112" s="1">
-        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="I112" s="18" t="s">
         <v>629</v>
       </c>
       <c r="J112" s="12">
+        <f t="shared" si="32"/>
+        <v>76</v>
+      </c>
+      <c r="K112" s="12">
         <f t="shared" si="33"/>
-        <v>76</v>
-      </c>
-      <c r="K112" s="12">
-        <f t="shared" si="34"/>
         <v>16</v>
       </c>
       <c r="L112" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M112" s="11" t="s">
         <v>628</v>
       </c>
       <c r="N112" s="11">
+        <f t="shared" si="34"/>
+        <v>6</v>
+      </c>
+      <c r="O112" s="1">
         <f t="shared" si="35"/>
-        <v>6</v>
-      </c>
-      <c r="O112" s="1">
-        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="P112" s="13"/>
@@ -14263,11 +14263,11 @@
         <v>0</v>
       </c>
       <c r="S112" s="3">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+      <c r="T112" s="1">
         <f t="shared" si="37"/>
-        <v>5</v>
-      </c>
-      <c r="T112" s="1">
-        <f t="shared" si="38"/>
         <v>6</v>
       </c>
     </row>
@@ -14288,41 +14288,41 @@
         <v>812</v>
       </c>
       <c r="F113" s="1">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+      <c r="G113" s="1">
         <f t="shared" si="30"/>
         <v>4</v>
       </c>
-      <c r="G113" s="1">
+      <c r="H113" s="1">
         <f t="shared" si="31"/>
-        <v>4</v>
-      </c>
-      <c r="H113" s="1">
-        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="I113" s="18" t="s">
         <v>630</v>
       </c>
       <c r="J113" s="12">
+        <f t="shared" si="32"/>
+        <v>64</v>
+      </c>
+      <c r="K113" s="12">
         <f t="shared" si="33"/>
-        <v>64</v>
-      </c>
-      <c r="K113" s="12">
-        <f t="shared" si="34"/>
         <v>13</v>
       </c>
       <c r="L113" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M113" s="11" t="s">
         <v>631</v>
       </c>
       <c r="N113" s="11">
+        <f t="shared" si="34"/>
+        <v>7</v>
+      </c>
+      <c r="O113" s="1">
         <f t="shared" si="35"/>
-        <v>7</v>
-      </c>
-      <c r="O113" s="1">
-        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="P113" s="13"/>
@@ -14331,11 +14331,11 @@
         <v>0</v>
       </c>
       <c r="S113" s="3">
+        <f t="shared" si="36"/>
+        <v>3</v>
+      </c>
+      <c r="T113" s="1">
         <f t="shared" si="37"/>
-        <v>3</v>
-      </c>
-      <c r="T113" s="1">
-        <f t="shared" si="38"/>
         <v>4</v>
       </c>
     </row>
@@ -14356,41 +14356,41 @@
         <v>813</v>
       </c>
       <c r="F114" s="1">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="G114" s="1">
         <f t="shared" si="30"/>
         <v>5</v>
       </c>
-      <c r="G114" s="1">
+      <c r="H114" s="1">
         <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="H114" s="1">
-        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="I114" s="18" t="s">
         <v>651</v>
       </c>
       <c r="J114" s="12">
+        <f t="shared" si="32"/>
+        <v>75</v>
+      </c>
+      <c r="K114" s="12">
         <f t="shared" si="33"/>
-        <v>75</v>
-      </c>
-      <c r="K114" s="12">
-        <f t="shared" si="34"/>
         <v>12</v>
       </c>
       <c r="L114" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M114" s="11" t="s">
         <v>259</v>
       </c>
       <c r="N114" s="11">
+        <f t="shared" si="34"/>
+        <v>5</v>
+      </c>
+      <c r="O114" s="1">
         <f t="shared" si="35"/>
-        <v>5</v>
-      </c>
-      <c r="O114" s="1">
-        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="P114" s="13"/>
@@ -14399,11 +14399,11 @@
         <v>0</v>
       </c>
       <c r="S114" s="3">
+        <f t="shared" si="36"/>
+        <v>7</v>
+      </c>
+      <c r="T114" s="1">
         <f t="shared" si="37"/>
-        <v>7</v>
-      </c>
-      <c r="T114" s="1">
-        <f t="shared" si="38"/>
         <v>8</v>
       </c>
     </row>
@@ -14424,41 +14424,41 @@
         <v>814</v>
       </c>
       <c r="F115" s="1">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="G115" s="1">
         <f t="shared" si="30"/>
         <v>5</v>
       </c>
-      <c r="G115" s="1">
+      <c r="H115" s="1">
         <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="H115" s="1">
-        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="I115" s="18" t="s">
         <v>653</v>
       </c>
       <c r="J115" s="12">
+        <f t="shared" si="32"/>
+        <v>78</v>
+      </c>
+      <c r="K115" s="12">
         <f t="shared" si="33"/>
-        <v>78</v>
-      </c>
-      <c r="K115" s="12">
-        <f t="shared" si="34"/>
         <v>12</v>
       </c>
       <c r="L115" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M115" s="11" t="s">
         <v>652</v>
       </c>
       <c r="N115" s="11">
+        <f t="shared" si="34"/>
+        <v>6</v>
+      </c>
+      <c r="O115" s="1">
         <f t="shared" si="35"/>
-        <v>6</v>
-      </c>
-      <c r="O115" s="1">
-        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="P115" s="13"/>
@@ -14467,11 +14467,11 @@
         <v>0</v>
       </c>
       <c r="S115" s="3">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+      <c r="T115" s="1">
         <f t="shared" si="37"/>
-        <v>4</v>
-      </c>
-      <c r="T115" s="1">
-        <f t="shared" si="38"/>
         <v>5</v>
       </c>
     </row>
@@ -14492,41 +14492,41 @@
         <v>817</v>
       </c>
       <c r="F116" s="1">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="G116" s="1">
         <f t="shared" si="30"/>
         <v>5</v>
       </c>
-      <c r="G116" s="1">
+      <c r="H116" s="1">
         <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="H116" s="1">
-        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="I116" s="18" t="s">
         <v>657</v>
       </c>
       <c r="J116" s="12">
+        <f t="shared" si="32"/>
+        <v>66</v>
+      </c>
+      <c r="K116" s="12">
         <f t="shared" si="33"/>
-        <v>66</v>
-      </c>
-      <c r="K116" s="12">
-        <f t="shared" si="34"/>
         <v>13</v>
       </c>
       <c r="L116" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M116" s="11" t="s">
         <v>656</v>
       </c>
       <c r="N116" s="11">
+        <f t="shared" si="34"/>
+        <v>5</v>
+      </c>
+      <c r="O116" s="1">
         <f t="shared" si="35"/>
-        <v>5</v>
-      </c>
-      <c r="O116" s="1">
-        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="P116" s="13"/>
@@ -14535,11 +14535,11 @@
         <v>0</v>
       </c>
       <c r="S116" s="3">
+        <f t="shared" si="36"/>
+        <v>7</v>
+      </c>
+      <c r="T116" s="1">
         <f t="shared" si="37"/>
-        <v>7</v>
-      </c>
-      <c r="T116" s="1">
-        <f t="shared" si="38"/>
         <v>8</v>
       </c>
     </row>
@@ -14560,41 +14560,41 @@
         <v>818</v>
       </c>
       <c r="F117" s="1">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="G117" s="1">
         <f t="shared" si="30"/>
         <v>5</v>
       </c>
-      <c r="G117" s="1">
+      <c r="H117" s="1">
         <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="H117" s="1">
-        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="I117" s="18" t="s">
         <v>882</v>
       </c>
       <c r="J117" s="12">
+        <f t="shared" si="32"/>
+        <v>73</v>
+      </c>
+      <c r="K117" s="12">
         <f t="shared" si="33"/>
-        <v>73</v>
-      </c>
-      <c r="K117" s="12">
-        <f t="shared" si="34"/>
         <v>13</v>
       </c>
       <c r="L117" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M117" s="11" t="s">
         <v>658</v>
       </c>
       <c r="N117" s="11">
+        <f t="shared" si="34"/>
+        <v>4</v>
+      </c>
+      <c r="O117" s="1">
         <f t="shared" si="35"/>
-        <v>4</v>
-      </c>
-      <c r="O117" s="1">
-        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="P117" s="13"/>
@@ -14603,11 +14603,11 @@
         <v>0</v>
       </c>
       <c r="S117" s="3">
+        <f t="shared" si="36"/>
+        <v>6</v>
+      </c>
+      <c r="T117" s="1">
         <f t="shared" si="37"/>
-        <v>6</v>
-      </c>
-      <c r="T117" s="1">
-        <f t="shared" si="38"/>
         <v>7</v>
       </c>
     </row>
@@ -14628,41 +14628,41 @@
         <v>821</v>
       </c>
       <c r="F118" s="1">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="G118" s="1">
         <f t="shared" si="30"/>
         <v>5</v>
       </c>
-      <c r="G118" s="1">
+      <c r="H118" s="1">
         <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="H118" s="1">
-        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="I118" s="18" t="s">
         <v>693</v>
       </c>
       <c r="J118" s="12">
+        <f t="shared" si="32"/>
+        <v>63</v>
+      </c>
+      <c r="K118" s="12">
         <f t="shared" si="33"/>
-        <v>63</v>
-      </c>
-      <c r="K118" s="12">
-        <f t="shared" si="34"/>
         <v>13</v>
       </c>
       <c r="L118" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M118" s="11" t="s">
         <v>659</v>
       </c>
       <c r="N118" s="11">
+        <f t="shared" si="34"/>
+        <v>4</v>
+      </c>
+      <c r="O118" s="1">
         <f t="shared" si="35"/>
-        <v>4</v>
-      </c>
-      <c r="O118" s="1">
-        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="P118" s="13"/>
@@ -14671,11 +14671,11 @@
         <v>0</v>
       </c>
       <c r="S118" s="3">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+      <c r="T118" s="1">
         <f t="shared" si="37"/>
-        <v>5</v>
-      </c>
-      <c r="T118" s="1">
-        <f t="shared" si="38"/>
         <v>6</v>
       </c>
     </row>
@@ -14696,41 +14696,41 @@
         <v>823</v>
       </c>
       <c r="F119" s="1">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="G119" s="1">
         <f t="shared" si="30"/>
         <v>5</v>
       </c>
-      <c r="G119" s="1">
+      <c r="H119" s="1">
         <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="H119" s="1">
-        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="I119" s="18" t="s">
         <v>694</v>
       </c>
       <c r="J119" s="12">
+        <f t="shared" si="32"/>
+        <v>81</v>
+      </c>
+      <c r="K119" s="12">
         <f t="shared" si="33"/>
-        <v>81</v>
-      </c>
-      <c r="K119" s="12">
-        <f t="shared" si="34"/>
         <v>15</v>
       </c>
       <c r="L119" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M119" s="11" t="s">
         <v>661</v>
       </c>
       <c r="N119" s="11">
+        <f t="shared" si="34"/>
+        <v>4</v>
+      </c>
+      <c r="O119" s="1">
         <f t="shared" si="35"/>
-        <v>4</v>
-      </c>
-      <c r="O119" s="1">
-        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="P119" s="13"/>
@@ -14739,11 +14739,11 @@
         <v>0</v>
       </c>
       <c r="S119" s="3">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+      <c r="T119" s="1">
         <f t="shared" si="37"/>
-        <v>5</v>
-      </c>
-      <c r="T119" s="1">
-        <f t="shared" si="38"/>
         <v>6</v>
       </c>
     </row>
@@ -14764,41 +14764,41 @@
         <v>824</v>
       </c>
       <c r="F120" s="1">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="G120" s="1">
         <f t="shared" si="30"/>
         <v>5</v>
       </c>
-      <c r="G120" s="1">
+      <c r="H120" s="1">
         <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="H120" s="1">
-        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="I120" s="18" t="s">
         <v>891</v>
       </c>
       <c r="J120" s="12">
+        <f t="shared" si="32"/>
+        <v>84</v>
+      </c>
+      <c r="K120" s="12">
         <f t="shared" si="33"/>
-        <v>84</v>
-      </c>
-      <c r="K120" s="12">
-        <f t="shared" si="34"/>
         <v>16</v>
       </c>
       <c r="L120" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M120" s="11" t="s">
         <v>238</v>
       </c>
       <c r="N120" s="11">
+        <f t="shared" si="34"/>
+        <v>5</v>
+      </c>
+      <c r="O120" s="1">
         <f t="shared" si="35"/>
-        <v>5</v>
-      </c>
-      <c r="O120" s="1">
-        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="P120" s="13"/>
@@ -14807,11 +14807,11 @@
         <v>0</v>
       </c>
       <c r="S120" s="3">
+        <f t="shared" si="36"/>
+        <v>8</v>
+      </c>
+      <c r="T120" s="1">
         <f t="shared" si="37"/>
-        <v>8</v>
-      </c>
-      <c r="T120" s="1">
-        <f t="shared" si="38"/>
         <v>9</v>
       </c>
     </row>
@@ -14832,41 +14832,41 @@
         <v>825</v>
       </c>
       <c r="F121" s="1">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="G121" s="1">
         <f t="shared" si="30"/>
         <v>5</v>
       </c>
-      <c r="G121" s="1">
+      <c r="H121" s="1">
         <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="H121" s="1">
-        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="I121" s="18" t="s">
         <v>883</v>
       </c>
       <c r="J121" s="12">
+        <f t="shared" si="32"/>
+        <v>71</v>
+      </c>
+      <c r="K121" s="12">
         <f t="shared" si="33"/>
-        <v>71</v>
-      </c>
-      <c r="K121" s="12">
-        <f t="shared" si="34"/>
         <v>13</v>
       </c>
       <c r="L121" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M121" s="11" t="s">
         <v>284</v>
       </c>
       <c r="N121" s="11">
+        <f t="shared" si="34"/>
+        <v>5</v>
+      </c>
+      <c r="O121" s="1">
         <f t="shared" si="35"/>
-        <v>5</v>
-      </c>
-      <c r="O121" s="1">
-        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="P121" s="13"/>
@@ -14875,11 +14875,11 @@
         <v>0</v>
       </c>
       <c r="S121" s="3">
+        <f t="shared" si="36"/>
+        <v>6</v>
+      </c>
+      <c r="T121" s="1">
         <f t="shared" si="37"/>
-        <v>6</v>
-      </c>
-      <c r="T121" s="1">
-        <f t="shared" si="38"/>
         <v>7</v>
       </c>
     </row>
@@ -14900,41 +14900,41 @@
         <v>827</v>
       </c>
       <c r="F122" s="1">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="G122" s="1">
         <f t="shared" si="30"/>
         <v>5</v>
       </c>
-      <c r="G122" s="1">
+      <c r="H122" s="1">
         <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="H122" s="1">
-        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="I122" s="18" t="s">
         <v>884</v>
       </c>
       <c r="J122" s="12">
+        <f t="shared" si="32"/>
+        <v>69</v>
+      </c>
+      <c r="K122" s="12">
         <f t="shared" si="33"/>
-        <v>69</v>
-      </c>
-      <c r="K122" s="12">
-        <f t="shared" si="34"/>
         <v>14</v>
       </c>
       <c r="L122" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M122" s="11" t="s">
         <v>663</v>
       </c>
       <c r="N122" s="11">
+        <f t="shared" si="34"/>
+        <v>6</v>
+      </c>
+      <c r="O122" s="1">
         <f t="shared" si="35"/>
-        <v>6</v>
-      </c>
-      <c r="O122" s="1">
-        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="P122" s="13"/>
@@ -14943,11 +14943,11 @@
         <v>0</v>
       </c>
       <c r="S122" s="3">
+        <f t="shared" si="36"/>
+        <v>7</v>
+      </c>
+      <c r="T122" s="1">
         <f t="shared" si="37"/>
-        <v>7</v>
-      </c>
-      <c r="T122" s="1">
-        <f t="shared" si="38"/>
         <v>8</v>
       </c>
     </row>
@@ -14968,41 +14968,41 @@
         <v>829</v>
       </c>
       <c r="F123" s="1">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="G123" s="1">
         <f t="shared" si="30"/>
         <v>5</v>
       </c>
-      <c r="G123" s="1">
+      <c r="H123" s="1">
         <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="H123" s="1">
-        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="I123" s="18" t="s">
         <v>675</v>
       </c>
       <c r="J123" s="12">
+        <f t="shared" si="32"/>
+        <v>63</v>
+      </c>
+      <c r="K123" s="12">
         <f t="shared" si="33"/>
-        <v>63</v>
-      </c>
-      <c r="K123" s="12">
-        <f t="shared" si="34"/>
         <v>11</v>
       </c>
       <c r="L123" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M123" s="11" t="s">
         <v>665</v>
       </c>
       <c r="N123" s="11">
+        <f t="shared" si="34"/>
+        <v>8</v>
+      </c>
+      <c r="O123" s="1">
         <f t="shared" si="35"/>
-        <v>8</v>
-      </c>
-      <c r="O123" s="1">
-        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="P123" s="13"/>
@@ -15011,11 +15011,11 @@
         <v>0</v>
       </c>
       <c r="S123" s="3">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+      <c r="T123" s="1">
         <f t="shared" si="37"/>
-        <v>5</v>
-      </c>
-      <c r="T123" s="1">
-        <f t="shared" si="38"/>
         <v>6</v>
       </c>
     </row>
@@ -15036,41 +15036,41 @@
         <v>830</v>
       </c>
       <c r="F124" s="1">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="G124" s="1">
         <f t="shared" si="30"/>
         <v>5</v>
       </c>
-      <c r="G124" s="1">
+      <c r="H124" s="1">
         <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="H124" s="1">
-        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="I124" s="18" t="s">
         <v>676</v>
       </c>
       <c r="J124" s="12">
+        <f t="shared" si="32"/>
+        <v>84</v>
+      </c>
+      <c r="K124" s="12">
         <f t="shared" si="33"/>
-        <v>84</v>
-      </c>
-      <c r="K124" s="12">
-        <f t="shared" si="34"/>
         <v>16</v>
       </c>
       <c r="L124" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M124" s="11" t="s">
         <v>322</v>
       </c>
       <c r="N124" s="11">
+        <f t="shared" si="34"/>
+        <v>5</v>
+      </c>
+      <c r="O124" s="1">
         <f t="shared" si="35"/>
-        <v>5</v>
-      </c>
-      <c r="O124" s="1">
-        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="P124" s="13"/>
@@ -15079,11 +15079,11 @@
         <v>0</v>
       </c>
       <c r="S124" s="3">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+      <c r="T124" s="1">
         <f t="shared" si="37"/>
-        <v>5</v>
-      </c>
-      <c r="T124" s="1">
-        <f t="shared" si="38"/>
         <v>6</v>
       </c>
     </row>
@@ -15104,41 +15104,41 @@
         <v>831</v>
       </c>
       <c r="F125" s="1">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="G125" s="1">
         <f t="shared" si="30"/>
         <v>5</v>
       </c>
-      <c r="G125" s="1">
+      <c r="H125" s="1">
         <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="H125" s="1">
-        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="I125" s="18" t="s">
         <v>695</v>
       </c>
       <c r="J125" s="12">
+        <f t="shared" si="32"/>
+        <v>76</v>
+      </c>
+      <c r="K125" s="12">
         <f t="shared" si="33"/>
-        <v>76</v>
-      </c>
-      <c r="K125" s="12">
-        <f t="shared" si="34"/>
         <v>14</v>
       </c>
       <c r="L125" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M125" s="11" t="s">
         <v>254</v>
       </c>
       <c r="N125" s="11">
+        <f t="shared" si="34"/>
+        <v>4</v>
+      </c>
+      <c r="O125" s="1">
         <f t="shared" si="35"/>
-        <v>4</v>
-      </c>
-      <c r="O125" s="1">
-        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="P125" s="13"/>
@@ -15147,11 +15147,11 @@
         <v>0</v>
       </c>
       <c r="S125" s="3">
+        <f t="shared" si="36"/>
+        <v>7</v>
+      </c>
+      <c r="T125" s="1">
         <f t="shared" si="37"/>
-        <v>7</v>
-      </c>
-      <c r="T125" s="1">
-        <f t="shared" si="38"/>
         <v>8</v>
       </c>
     </row>
@@ -15172,41 +15172,41 @@
         <v>832</v>
       </c>
       <c r="F126" s="1">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="G126" s="1">
         <f t="shared" si="30"/>
         <v>5</v>
       </c>
-      <c r="G126" s="1">
+      <c r="H126" s="1">
         <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="H126" s="1">
-        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="I126" s="18" t="s">
         <v>885</v>
       </c>
       <c r="J126" s="12">
+        <f t="shared" si="32"/>
+        <v>67</v>
+      </c>
+      <c r="K126" s="12">
         <f t="shared" si="33"/>
-        <v>67</v>
-      </c>
-      <c r="K126" s="12">
-        <f t="shared" si="34"/>
         <v>12</v>
       </c>
       <c r="L126" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M126" s="11" t="s">
         <v>667</v>
       </c>
       <c r="N126" s="11">
+        <f t="shared" si="34"/>
+        <v>8</v>
+      </c>
+      <c r="O126" s="1">
         <f t="shared" si="35"/>
-        <v>8</v>
-      </c>
-      <c r="O126" s="1">
-        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="P126" s="13"/>
@@ -15215,11 +15215,11 @@
         <v>0</v>
       </c>
       <c r="S126" s="3">
+        <f t="shared" si="36"/>
+        <v>3</v>
+      </c>
+      <c r="T126" s="1">
         <f t="shared" si="37"/>
-        <v>3</v>
-      </c>
-      <c r="T126" s="1">
-        <f t="shared" si="38"/>
         <v>4</v>
       </c>
     </row>
@@ -15240,41 +15240,41 @@
         <v>833</v>
       </c>
       <c r="F127" s="1">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="G127" s="1">
         <f t="shared" si="30"/>
         <v>5</v>
       </c>
-      <c r="G127" s="1">
+      <c r="H127" s="1">
         <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="H127" s="1">
-        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="I127" s="18" t="s">
         <v>886</v>
       </c>
       <c r="J127" s="12">
+        <f t="shared" si="32"/>
+        <v>74</v>
+      </c>
+      <c r="K127" s="12">
         <f t="shared" si="33"/>
-        <v>74</v>
-      </c>
-      <c r="K127" s="12">
-        <f t="shared" si="34"/>
         <v>14</v>
       </c>
       <c r="L127" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M127" s="11" t="s">
         <v>668</v>
       </c>
       <c r="N127" s="11">
+        <f t="shared" si="34"/>
+        <v>7</v>
+      </c>
+      <c r="O127" s="1">
         <f t="shared" si="35"/>
-        <v>7</v>
-      </c>
-      <c r="O127" s="1">
-        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="P127" s="13"/>
@@ -15283,11 +15283,11 @@
         <v>0</v>
       </c>
       <c r="S127" s="3">
+        <f t="shared" si="36"/>
+        <v>8</v>
+      </c>
+      <c r="T127" s="1">
         <f t="shared" si="37"/>
-        <v>8</v>
-      </c>
-      <c r="T127" s="1">
-        <f t="shared" si="38"/>
         <v>9</v>
       </c>
     </row>
@@ -15308,41 +15308,41 @@
         <v>834</v>
       </c>
       <c r="F128" s="1">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="G128" s="1">
         <f t="shared" si="30"/>
         <v>5</v>
       </c>
-      <c r="G128" s="1">
+      <c r="H128" s="1">
         <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="H128" s="1">
-        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="I128" s="18" t="s">
         <v>677</v>
       </c>
       <c r="J128" s="12">
+        <f t="shared" si="32"/>
+        <v>72</v>
+      </c>
+      <c r="K128" s="12">
         <f t="shared" si="33"/>
-        <v>72</v>
-      </c>
-      <c r="K128" s="12">
-        <f t="shared" si="34"/>
         <v>14</v>
       </c>
       <c r="L128" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M128" s="11" t="s">
         <v>238</v>
       </c>
       <c r="N128" s="11">
+        <f t="shared" si="34"/>
+        <v>5</v>
+      </c>
+      <c r="O128" s="1">
         <f t="shared" si="35"/>
-        <v>5</v>
-      </c>
-      <c r="O128" s="1">
-        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="P128" s="13"/>
@@ -15351,11 +15351,11 @@
         <v>0</v>
       </c>
       <c r="S128" s="3">
+        <f t="shared" si="36"/>
+        <v>8</v>
+      </c>
+      <c r="T128" s="1">
         <f t="shared" si="37"/>
-        <v>8</v>
-      </c>
-      <c r="T128" s="1">
-        <f t="shared" si="38"/>
         <v>9</v>
       </c>
     </row>
@@ -15376,41 +15376,41 @@
         <v>835</v>
       </c>
       <c r="F129" s="1">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="G129" s="1">
         <f t="shared" si="30"/>
         <v>5</v>
       </c>
-      <c r="G129" s="1">
+      <c r="H129" s="1">
         <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="H129" s="1">
-        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="I129" s="18" t="s">
         <v>679</v>
       </c>
       <c r="J129" s="12">
+        <f t="shared" si="32"/>
+        <v>84</v>
+      </c>
+      <c r="K129" s="12">
         <f t="shared" si="33"/>
-        <v>84</v>
-      </c>
-      <c r="K129" s="12">
-        <f t="shared" si="34"/>
         <v>15</v>
       </c>
       <c r="L129" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M129" s="11" t="s">
         <v>696</v>
       </c>
       <c r="N129" s="11">
+        <f t="shared" si="34"/>
+        <v>8</v>
+      </c>
+      <c r="O129" s="1">
         <f t="shared" si="35"/>
-        <v>8</v>
-      </c>
-      <c r="O129" s="1">
-        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="P129" s="13"/>
@@ -15419,11 +15419,11 @@
         <v>0</v>
       </c>
       <c r="S129" s="3">
+        <f t="shared" si="36"/>
+        <v>3</v>
+      </c>
+      <c r="T129" s="1">
         <f t="shared" si="37"/>
-        <v>3</v>
-      </c>
-      <c r="T129" s="1">
-        <f t="shared" si="38"/>
         <v>4</v>
       </c>
     </row>
@@ -15444,41 +15444,41 @@
         <v>836</v>
       </c>
       <c r="F130" s="14">
-        <f t="shared" ref="F130:F139" si="39">LEN(C130)</f>
+        <f t="shared" ref="F130:F140" si="38">LEN(C130)</f>
         <v>5</v>
       </c>
       <c r="G130" s="14">
-        <f t="shared" ref="G130:G139" si="40">LEN(D130)</f>
+        <f t="shared" ref="G130:G139" si="39">LEN(D130)</f>
         <v>5</v>
       </c>
       <c r="H130" s="1">
-        <f t="shared" ref="H130:H139" si="41">LEN(E130)</f>
+        <f t="shared" ref="H130:H139" si="40">LEN(E130)</f>
         <v>5</v>
       </c>
       <c r="I130" s="18" t="s">
         <v>887</v>
       </c>
       <c r="J130" s="12">
-        <f t="shared" ref="J130:J139" si="42">LEN(I130)</f>
+        <f t="shared" ref="J130:J145" si="41">LEN(I130)</f>
         <v>64</v>
       </c>
       <c r="K130" s="12">
-        <f t="shared" ref="K130:K139" si="43">IF(ISBLANK(I130),0,LEN(TRIM(I130))-LEN(SUBSTITUTE(I130," ",""))+1)</f>
+        <f t="shared" ref="K130:K145" si="42">IF(ISBLANK(I130),0,LEN(TRIM(I130))-LEN(SUBSTITUTE(I130," ",""))+1)</f>
         <v>13</v>
       </c>
       <c r="L130" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M130" s="11" t="s">
         <v>669</v>
       </c>
       <c r="N130" s="11">
-        <f t="shared" ref="N130:N145" si="44">LEN(M130)</f>
+        <f t="shared" ref="N130:N145" si="43">LEN(M130)</f>
         <v>5</v>
       </c>
       <c r="O130" s="14">
-        <f t="shared" ref="O130:O145" si="45">LEN(C130)</f>
+        <f t="shared" ref="O130:O145" si="44">LEN(C130)</f>
         <v>5</v>
       </c>
       <c r="P130" s="13"/>
@@ -15487,11 +15487,11 @@
         <v>0</v>
       </c>
       <c r="S130" s="3">
-        <f t="shared" ref="S130:S145" si="46">IF(ISBLANK(LEFT(I130,FIND(M130,I130)-1)),0,LEN(TRIM(LEFT(I130,FIND(M130,I130)-1)))-LEN(SUBSTITUTE(LEFT(I130,FIND(M130,I130)-1)," ",""))+1)+1</f>
+        <f t="shared" ref="S130:S145" si="45">IF(ISBLANK(LEFT(I130,FIND(M130,I130)-1)),0,LEN(TRIM(LEFT(I130,FIND(M130,I130)-1)))-LEN(SUBSTITUTE(LEFT(I130,FIND(M130,I130)-1)," ",""))+1)+1</f>
         <v>4</v>
       </c>
       <c r="T130" s="1">
-        <f t="shared" ref="T130:T146" si="47">S130+1</f>
+        <f t="shared" ref="T130:T145" si="46">S130+1</f>
         <v>5</v>
       </c>
     </row>
@@ -15512,41 +15512,41 @@
         <v>838</v>
       </c>
       <c r="F131" s="1">
+        <f t="shared" si="38"/>
+        <v>5</v>
+      </c>
+      <c r="G131" s="1">
         <f t="shared" si="39"/>
         <v>5</v>
       </c>
-      <c r="G131" s="1">
+      <c r="H131" s="1">
         <f t="shared" si="40"/>
-        <v>5</v>
-      </c>
-      <c r="H131" s="1">
-        <f t="shared" si="41"/>
         <v>5</v>
       </c>
       <c r="I131" s="18" t="s">
         <v>678</v>
       </c>
       <c r="J131" s="12">
+        <f t="shared" si="41"/>
+        <v>82</v>
+      </c>
+      <c r="K131" s="12">
         <f t="shared" si="42"/>
-        <v>82</v>
-      </c>
-      <c r="K131" s="12">
-        <f t="shared" si="43"/>
         <v>17</v>
       </c>
       <c r="L131" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="L131:L145" si="47">IF(J131&gt;87, "WILL NOT FIT ON SCREEN!", "Yes")</f>
         <v>Yes</v>
       </c>
       <c r="M131" s="11" t="s">
         <v>671</v>
       </c>
       <c r="N131" s="11">
+        <f t="shared" si="43"/>
+        <v>4</v>
+      </c>
+      <c r="O131" s="1">
         <f t="shared" si="44"/>
-        <v>4</v>
-      </c>
-      <c r="O131" s="1">
-        <f t="shared" si="45"/>
         <v>5</v>
       </c>
       <c r="P131" s="13"/>
@@ -15555,11 +15555,11 @@
         <v>0</v>
       </c>
       <c r="S131" s="3">
+        <f t="shared" si="45"/>
+        <v>11</v>
+      </c>
+      <c r="T131" s="1">
         <f t="shared" si="46"/>
-        <v>11</v>
-      </c>
-      <c r="T131" s="1">
-        <f t="shared" si="47"/>
         <v>12</v>
       </c>
     </row>
@@ -15580,41 +15580,41 @@
         <v>839</v>
       </c>
       <c r="F132" s="1">
+        <f t="shared" si="38"/>
+        <v>5</v>
+      </c>
+      <c r="G132" s="1">
         <f t="shared" si="39"/>
         <v>5</v>
       </c>
-      <c r="G132" s="1">
+      <c r="H132" s="1">
         <f t="shared" si="40"/>
-        <v>5</v>
-      </c>
-      <c r="H132" s="1">
-        <f t="shared" si="41"/>
         <v>5</v>
       </c>
       <c r="I132" s="18" t="s">
         <v>888</v>
       </c>
       <c r="J132" s="12">
+        <f t="shared" si="41"/>
+        <v>76</v>
+      </c>
+      <c r="K132" s="12">
         <f t="shared" si="42"/>
-        <v>76</v>
-      </c>
-      <c r="K132" s="12">
-        <f t="shared" si="43"/>
         <v>16</v>
       </c>
       <c r="L132" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="47"/>
         <v>Yes</v>
       </c>
       <c r="M132" s="11" t="s">
         <v>672</v>
       </c>
       <c r="N132" s="11">
+        <f t="shared" si="43"/>
+        <v>4</v>
+      </c>
+      <c r="O132" s="1">
         <f t="shared" si="44"/>
-        <v>4</v>
-      </c>
-      <c r="O132" s="1">
-        <f t="shared" si="45"/>
         <v>5</v>
       </c>
       <c r="P132" s="13"/>
@@ -15623,11 +15623,11 @@
         <v>0</v>
       </c>
       <c r="S132" s="3">
+        <f t="shared" si="45"/>
+        <v>8</v>
+      </c>
+      <c r="T132" s="1">
         <f t="shared" si="46"/>
-        <v>8</v>
-      </c>
-      <c r="T132" s="1">
-        <f t="shared" si="47"/>
         <v>9</v>
       </c>
     </row>
@@ -15648,41 +15648,41 @@
         <v>843</v>
       </c>
       <c r="F133" s="1">
+        <f t="shared" si="38"/>
+        <v>5</v>
+      </c>
+      <c r="G133" s="1">
         <f t="shared" si="39"/>
         <v>5</v>
       </c>
-      <c r="G133" s="1">
+      <c r="H133" s="1">
         <f t="shared" si="40"/>
-        <v>5</v>
-      </c>
-      <c r="H133" s="1">
-        <f t="shared" si="41"/>
         <v>5</v>
       </c>
       <c r="I133" s="18" t="s">
         <v>633</v>
       </c>
       <c r="J133" s="12">
+        <f t="shared" si="41"/>
+        <v>72</v>
+      </c>
+      <c r="K133" s="12">
         <f t="shared" si="42"/>
-        <v>72</v>
-      </c>
-      <c r="K133" s="12">
-        <f t="shared" si="43"/>
         <v>12</v>
       </c>
       <c r="L133" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="47"/>
         <v>Yes</v>
       </c>
       <c r="M133" s="11" t="s">
         <v>167</v>
       </c>
       <c r="N133" s="11">
+        <f t="shared" si="43"/>
+        <v>5</v>
+      </c>
+      <c r="O133" s="1">
         <f t="shared" si="44"/>
-        <v>5</v>
-      </c>
-      <c r="O133" s="1">
-        <f t="shared" si="45"/>
         <v>5</v>
       </c>
       <c r="P133" s="13"/>
@@ -15691,11 +15691,11 @@
         <v>0</v>
       </c>
       <c r="S133" s="3">
+        <f t="shared" si="45"/>
+        <v>6</v>
+      </c>
+      <c r="T133" s="1">
         <f t="shared" si="46"/>
-        <v>6</v>
-      </c>
-      <c r="T133" s="1">
-        <f t="shared" si="47"/>
         <v>7</v>
       </c>
     </row>
@@ -15716,41 +15716,41 @@
         <v>844</v>
       </c>
       <c r="F134" s="1">
+        <f t="shared" si="38"/>
+        <v>5</v>
+      </c>
+      <c r="G134" s="1">
         <f t="shared" si="39"/>
         <v>5</v>
       </c>
-      <c r="G134" s="1">
+      <c r="H134" s="1">
         <f t="shared" si="40"/>
-        <v>5</v>
-      </c>
-      <c r="H134" s="1">
-        <f t="shared" si="41"/>
         <v>5</v>
       </c>
       <c r="I134" s="18" t="s">
         <v>634</v>
       </c>
       <c r="J134" s="12">
+        <f t="shared" si="41"/>
+        <v>75</v>
+      </c>
+      <c r="K134" s="12">
         <f t="shared" si="42"/>
-        <v>75</v>
-      </c>
-      <c r="K134" s="12">
-        <f t="shared" si="43"/>
         <v>16</v>
       </c>
       <c r="L134" s="5" t="str">
-        <f t="shared" ref="L134:L139" si="48">IF(J134&gt;88, "WILL NOT FIT ON SCREEN!", "Yes")</f>
+        <f t="shared" si="47"/>
         <v>Yes</v>
       </c>
       <c r="M134" s="11" t="s">
         <v>314</v>
       </c>
       <c r="N134" s="11">
+        <f t="shared" si="43"/>
+        <v>5</v>
+      </c>
+      <c r="O134" s="1">
         <f t="shared" si="44"/>
-        <v>5</v>
-      </c>
-      <c r="O134" s="1">
-        <f t="shared" si="45"/>
         <v>5</v>
       </c>
       <c r="P134" s="13"/>
@@ -15759,11 +15759,11 @@
         <v>0</v>
       </c>
       <c r="S134" s="3">
+        <f t="shared" si="45"/>
+        <v>7</v>
+      </c>
+      <c r="T134" s="1">
         <f t="shared" si="46"/>
-        <v>7</v>
-      </c>
-      <c r="T134" s="1">
-        <f t="shared" si="47"/>
         <v>8</v>
       </c>
     </row>
@@ -15784,41 +15784,41 @@
         <v>846</v>
       </c>
       <c r="F135" s="1">
+        <f t="shared" si="38"/>
+        <v>6</v>
+      </c>
+      <c r="G135" s="1">
         <f t="shared" si="39"/>
         <v>6</v>
       </c>
-      <c r="G135" s="1">
+      <c r="H135" s="1">
         <f t="shared" si="40"/>
         <v>6</v>
       </c>
-      <c r="H135" s="1">
-        <f t="shared" si="41"/>
-        <v>6</v>
-      </c>
       <c r="I135" s="18" t="s">
         <v>889</v>
       </c>
       <c r="J135" s="12">
+        <f t="shared" si="41"/>
+        <v>80</v>
+      </c>
+      <c r="K135" s="12">
         <f t="shared" si="42"/>
-        <v>80</v>
-      </c>
-      <c r="K135" s="12">
-        <f t="shared" si="43"/>
         <v>16</v>
       </c>
       <c r="L135" s="5" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>Yes</v>
       </c>
       <c r="M135" s="11" t="s">
         <v>639</v>
       </c>
       <c r="N135" s="11">
+        <f t="shared" si="43"/>
+        <v>5</v>
+      </c>
+      <c r="O135" s="1">
         <f t="shared" si="44"/>
-        <v>5</v>
-      </c>
-      <c r="O135" s="1">
-        <f t="shared" si="45"/>
         <v>6</v>
       </c>
       <c r="P135" s="13"/>
@@ -15827,11 +15827,11 @@
         <v>0</v>
       </c>
       <c r="S135" s="3">
+        <f t="shared" si="45"/>
+        <v>5</v>
+      </c>
+      <c r="T135" s="1">
         <f t="shared" si="46"/>
-        <v>5</v>
-      </c>
-      <c r="T135" s="1">
-        <f t="shared" si="47"/>
         <v>6</v>
       </c>
     </row>
@@ -15852,41 +15852,41 @@
         <v>848</v>
       </c>
       <c r="F136" s="1">
+        <f t="shared" si="38"/>
+        <v>6</v>
+      </c>
+      <c r="G136" s="1">
         <f t="shared" si="39"/>
         <v>6</v>
       </c>
-      <c r="G136" s="1">
+      <c r="H136" s="1">
         <f t="shared" si="40"/>
         <v>6</v>
       </c>
-      <c r="H136" s="1">
-        <f t="shared" si="41"/>
-        <v>6</v>
-      </c>
       <c r="I136" s="8" t="s">
         <v>893</v>
       </c>
       <c r="J136" s="12">
+        <f t="shared" si="41"/>
+        <v>87</v>
+      </c>
+      <c r="K136" s="12">
         <f t="shared" si="42"/>
-        <v>87</v>
-      </c>
-      <c r="K136" s="12">
-        <f t="shared" si="43"/>
         <v>17</v>
       </c>
       <c r="L136" s="5" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>Yes</v>
       </c>
       <c r="M136" s="11" t="s">
         <v>894</v>
       </c>
       <c r="N136" s="11">
+        <f t="shared" si="43"/>
+        <v>4</v>
+      </c>
+      <c r="O136" s="1">
         <f t="shared" si="44"/>
-        <v>4</v>
-      </c>
-      <c r="O136" s="1">
-        <f t="shared" si="45"/>
         <v>6</v>
       </c>
       <c r="P136" s="13"/>
@@ -15895,11 +15895,11 @@
         <v>0</v>
       </c>
       <c r="S136" s="3">
+        <f t="shared" si="45"/>
+        <v>5</v>
+      </c>
+      <c r="T136" s="1">
         <f t="shared" si="46"/>
-        <v>5</v>
-      </c>
-      <c r="T136" s="1">
-        <f t="shared" si="47"/>
         <v>6</v>
       </c>
     </row>
@@ -15920,41 +15920,41 @@
         <v>849</v>
       </c>
       <c r="F137" s="1">
+        <f t="shared" si="38"/>
+        <v>6</v>
+      </c>
+      <c r="G137" s="1">
         <f t="shared" si="39"/>
         <v>6</v>
       </c>
-      <c r="G137" s="1">
+      <c r="H137" s="1">
         <f t="shared" si="40"/>
         <v>6</v>
       </c>
-      <c r="H137" s="1">
-        <f t="shared" si="41"/>
-        <v>6</v>
-      </c>
       <c r="I137" s="18" t="s">
         <v>685</v>
       </c>
       <c r="J137" s="12">
+        <f t="shared" si="41"/>
+        <v>82</v>
+      </c>
+      <c r="K137" s="12">
         <f t="shared" si="42"/>
-        <v>82</v>
-      </c>
-      <c r="K137" s="12">
-        <f t="shared" si="43"/>
         <v>13</v>
       </c>
       <c r="L137" s="5" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>Yes</v>
       </c>
       <c r="M137" s="11" t="s">
         <v>640</v>
       </c>
       <c r="N137" s="11">
+        <f t="shared" si="43"/>
+        <v>7</v>
+      </c>
+      <c r="O137" s="1">
         <f t="shared" si="44"/>
-        <v>7</v>
-      </c>
-      <c r="O137" s="1">
-        <f t="shared" si="45"/>
         <v>6</v>
       </c>
       <c r="P137" s="13"/>
@@ -15963,11 +15963,11 @@
         <v>0</v>
       </c>
       <c r="S137" s="3">
+        <f t="shared" si="45"/>
+        <v>6</v>
+      </c>
+      <c r="T137" s="1">
         <f t="shared" si="46"/>
-        <v>6</v>
-      </c>
-      <c r="T137" s="1">
-        <f t="shared" si="47"/>
         <v>7</v>
       </c>
     </row>
@@ -15988,41 +15988,41 @@
         <v>850</v>
       </c>
       <c r="F138" s="1">
+        <f t="shared" si="38"/>
+        <v>6</v>
+      </c>
+      <c r="G138" s="1">
         <f t="shared" si="39"/>
         <v>6</v>
       </c>
-      <c r="G138" s="1">
+      <c r="H138" s="1">
         <f t="shared" si="40"/>
         <v>6</v>
       </c>
-      <c r="H138" s="1">
-        <f t="shared" si="41"/>
-        <v>6</v>
-      </c>
       <c r="I138" s="18" t="s">
         <v>641</v>
       </c>
       <c r="J138" s="12">
+        <f t="shared" si="41"/>
+        <v>67</v>
+      </c>
+      <c r="K138" s="12">
         <f t="shared" si="42"/>
-        <v>67</v>
-      </c>
-      <c r="K138" s="12">
-        <f t="shared" si="43"/>
         <v>13</v>
       </c>
       <c r="L138" s="5" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>Yes</v>
       </c>
       <c r="M138" s="11" t="s">
         <v>642</v>
       </c>
       <c r="N138" s="11">
+        <f t="shared" si="43"/>
+        <v>5</v>
+      </c>
+      <c r="O138" s="1">
         <f t="shared" si="44"/>
-        <v>5</v>
-      </c>
-      <c r="O138" s="1">
-        <f t="shared" si="45"/>
         <v>6</v>
       </c>
       <c r="P138" s="13"/>
@@ -16031,11 +16031,11 @@
         <v>0</v>
       </c>
       <c r="S138" s="3">
+        <f t="shared" si="45"/>
+        <v>4</v>
+      </c>
+      <c r="T138" s="1">
         <f t="shared" si="46"/>
-        <v>4</v>
-      </c>
-      <c r="T138" s="1">
-        <f t="shared" si="47"/>
         <v>5</v>
       </c>
     </row>
@@ -16056,41 +16056,41 @@
         <v>851</v>
       </c>
       <c r="F139" s="1">
+        <f t="shared" si="38"/>
+        <v>6</v>
+      </c>
+      <c r="G139" s="1">
         <f t="shared" si="39"/>
         <v>6</v>
       </c>
-      <c r="G139" s="1">
+      <c r="H139" s="1">
         <f t="shared" si="40"/>
         <v>6</v>
       </c>
-      <c r="H139" s="1">
-        <f t="shared" si="41"/>
-        <v>6</v>
-      </c>
       <c r="I139" s="18" t="s">
         <v>650</v>
       </c>
       <c r="J139" s="12">
+        <f t="shared" si="41"/>
+        <v>79</v>
+      </c>
+      <c r="K139" s="12">
         <f t="shared" si="42"/>
-        <v>79</v>
-      </c>
-      <c r="K139" s="12">
-        <f t="shared" si="43"/>
         <v>15</v>
       </c>
       <c r="L139" s="5" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>Yes</v>
       </c>
       <c r="M139" s="11" t="s">
         <v>697</v>
       </c>
       <c r="N139" s="11">
+        <f t="shared" si="43"/>
+        <v>5</v>
+      </c>
+      <c r="O139" s="1">
         <f t="shared" si="44"/>
-        <v>5</v>
-      </c>
-      <c r="O139" s="1">
-        <f t="shared" si="45"/>
         <v>6</v>
       </c>
       <c r="P139" s="13"/>
@@ -16099,11 +16099,11 @@
         <v>0</v>
       </c>
       <c r="S139" s="3">
+        <f t="shared" si="45"/>
+        <v>8</v>
+      </c>
+      <c r="T139" s="1">
         <f t="shared" si="46"/>
-        <v>8</v>
-      </c>
-      <c r="T139" s="1">
-        <f t="shared" si="47"/>
         <v>9</v>
       </c>
     </row>
@@ -16121,24 +16121,33 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="20" t="s">
-        <v>902</v>
-      </c>
-      <c r="J140" s="12"/>
-      <c r="K140" s="12"/>
-      <c r="L140" s="5"/>
+        <v>901</v>
+      </c>
+      <c r="J140" s="12">
+        <f t="shared" si="41"/>
+        <v>74</v>
+      </c>
+      <c r="K140" s="12">
+        <f t="shared" si="42"/>
+        <v>13</v>
+      </c>
+      <c r="L140" s="5" t="str">
+        <f t="shared" si="47"/>
+        <v>Yes</v>
+      </c>
       <c r="M140" s="11" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="N140" s="11">
+        <f t="shared" si="43"/>
+        <v>10</v>
+      </c>
+      <c r="O140" s="1">
         <f t="shared" si="44"/>
-        <v>10</v>
-      </c>
-      <c r="O140" s="1">
-        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="P140" s="13" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="Q140" s="12">
         <v>0</v>
@@ -16147,11 +16156,11 @@
         <v>1</v>
       </c>
       <c r="S140" s="3">
+        <f t="shared" si="45"/>
+        <v>9</v>
+      </c>
+      <c r="T140" s="1">
         <f t="shared" si="46"/>
-        <v>9</v>
-      </c>
-      <c r="T140" s="1">
-        <f t="shared" si="47"/>
         <v>10</v>
       </c>
     </row>
@@ -16169,24 +16178,33 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="20" t="s">
-        <v>903</v>
-      </c>
-      <c r="J141" s="12"/>
-      <c r="K141" s="12"/>
-      <c r="L141" s="5"/>
+        <v>902</v>
+      </c>
+      <c r="J141" s="12">
+        <f t="shared" si="41"/>
+        <v>68</v>
+      </c>
+      <c r="K141" s="12">
+        <f t="shared" si="42"/>
+        <v>14</v>
+      </c>
+      <c r="L141" s="5" t="str">
+        <f t="shared" si="47"/>
+        <v>Yes</v>
+      </c>
       <c r="M141" s="11" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N141" s="11">
+        <f t="shared" si="43"/>
+        <v>2</v>
+      </c>
+      <c r="O141" s="1">
         <f t="shared" si="44"/>
-        <v>2</v>
-      </c>
-      <c r="O141" s="1">
-        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="P141" s="13" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="Q141" s="12">
         <v>1</v>
@@ -16195,11 +16213,11 @@
         <v>1</v>
       </c>
       <c r="S141" s="3">
+        <f t="shared" si="45"/>
+        <v>8</v>
+      </c>
+      <c r="T141" s="1">
         <f t="shared" si="46"/>
-        <v>8</v>
-      </c>
-      <c r="T141" s="1">
-        <f t="shared" si="47"/>
         <v>9</v>
       </c>
     </row>
@@ -16217,20 +16235,29 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="20" t="s">
-        <v>904</v>
-      </c>
-      <c r="J142" s="12"/>
-      <c r="K142" s="12"/>
-      <c r="L142" s="5"/>
+        <v>903</v>
+      </c>
+      <c r="J142" s="12">
+        <f t="shared" si="41"/>
+        <v>57</v>
+      </c>
+      <c r="K142" s="12">
+        <f t="shared" si="42"/>
+        <v>11</v>
+      </c>
+      <c r="L142" s="5" t="str">
+        <f t="shared" si="47"/>
+        <v>Yes</v>
+      </c>
       <c r="M142" s="11" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="N142" s="11">
+        <f t="shared" si="43"/>
+        <v>3</v>
+      </c>
+      <c r="O142" s="1">
         <f t="shared" si="44"/>
-        <v>3</v>
-      </c>
-      <c r="O142" s="1">
-        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="P142" s="13"/>
@@ -16239,11 +16266,11 @@
         <v>0</v>
       </c>
       <c r="S142" s="3">
+        <f t="shared" si="45"/>
+        <v>7</v>
+      </c>
+      <c r="T142" s="1">
         <f t="shared" si="46"/>
-        <v>7</v>
-      </c>
-      <c r="T142" s="1">
-        <f t="shared" si="47"/>
         <v>8</v>
       </c>
     </row>
@@ -16261,24 +16288,33 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="20" t="s">
-        <v>905</v>
-      </c>
-      <c r="J143" s="12"/>
-      <c r="K143" s="12"/>
-      <c r="L143" s="5"/>
+        <v>904</v>
+      </c>
+      <c r="J143" s="12">
+        <f t="shared" si="41"/>
+        <v>82</v>
+      </c>
+      <c r="K143" s="12">
+        <f t="shared" si="42"/>
+        <v>13</v>
+      </c>
+      <c r="L143" s="5" t="str">
+        <f t="shared" si="47"/>
+        <v>Yes</v>
+      </c>
       <c r="M143" s="11" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="N143" s="11">
+        <f t="shared" si="43"/>
+        <v>9</v>
+      </c>
+      <c r="O143" s="1">
         <f t="shared" si="44"/>
-        <v>9</v>
-      </c>
-      <c r="O143" s="1">
-        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="P143" s="13" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="Q143" s="12">
         <v>0</v>
@@ -16287,11 +16323,11 @@
         <v>1</v>
       </c>
       <c r="S143" s="3">
+        <f t="shared" si="45"/>
+        <v>4</v>
+      </c>
+      <c r="T143" s="1">
         <f t="shared" si="46"/>
-        <v>4</v>
-      </c>
-      <c r="T143" s="1">
-        <f t="shared" si="47"/>
         <v>5</v>
       </c>
     </row>
@@ -16303,28 +16339,40 @@
         <v>687</v>
       </c>
       <c r="I144" s="20" t="s">
-        <v>906</v>
+        <v>905</v>
+      </c>
+      <c r="J144" s="12">
+        <f t="shared" si="41"/>
+        <v>68</v>
+      </c>
+      <c r="K144" s="12">
+        <f t="shared" si="42"/>
+        <v>9</v>
+      </c>
+      <c r="L144" s="5" t="str">
+        <f t="shared" si="47"/>
+        <v>Yes</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="N144" s="11">
+        <f t="shared" si="43"/>
+        <v>6</v>
+      </c>
+      <c r="O144" s="1">
         <f t="shared" si="44"/>
-        <v>6</v>
-      </c>
-      <c r="O144" s="1">
-        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="R144" s="3">
         <v>0</v>
       </c>
       <c r="S144" s="3">
+        <f t="shared" si="45"/>
+        <v>5</v>
+      </c>
+      <c r="T144" s="1">
         <f t="shared" si="46"/>
-        <v>5</v>
-      </c>
-      <c r="T144" s="1">
-        <f t="shared" si="47"/>
         <v>6</v>
       </c>
     </row>
@@ -16336,28 +16384,40 @@
         <v>687</v>
       </c>
       <c r="I145" s="20" t="s">
-        <v>907</v>
+        <v>906</v>
+      </c>
+      <c r="J145" s="12">
+        <f t="shared" si="41"/>
+        <v>80</v>
+      </c>
+      <c r="K145" s="12">
+        <f t="shared" si="42"/>
+        <v>14</v>
+      </c>
+      <c r="L145" s="5" t="str">
+        <f t="shared" si="47"/>
+        <v>Yes</v>
       </c>
       <c r="M145" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="N145" s="11">
+        <f t="shared" si="43"/>
+        <v>4</v>
+      </c>
+      <c r="O145" s="1">
         <f t="shared" si="44"/>
-        <v>4</v>
-      </c>
-      <c r="O145" s="1">
-        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="R145" s="3">
         <v>0</v>
       </c>
       <c r="S145" s="3">
+        <f t="shared" si="45"/>
+        <v>6</v>
+      </c>
+      <c r="T145" s="1">
         <f t="shared" si="46"/>
-        <v>6</v>
-      </c>
-      <c r="T145" s="1">
-        <f t="shared" si="47"/>
         <v>7</v>
       </c>
     </row>
@@ -16366,7 +16426,7 @@
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F147" s="1">
-        <f>AVERAGE(F2:F139)</f>
+        <f>AVERAGE(F2:F140)</f>
         <v>4.77536231884058</v>
       </c>
       <c r="G147" s="1">
